--- a/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
+++ b/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F506E8-7678-4861-AC38-537A69301379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB8725-5E0C-4392-9B2B-CD8395A21D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="1110" windowWidth="25770" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30345" yWindow="1110" windowWidth="25770" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shape 01" sheetId="1" r:id="rId1"/>
+    <sheet name="Shape 02" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -177,12 +178,103 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>    public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t>        /*</t>
+  </si>
+  <si>
+    <t>            *  *  *  *  *   number=5</t>
+  </si>
+  <si>
+    <t>            *  *  *  *      number=4</t>
+  </si>
+  <si>
+    <t>            *  *  *         number=3</t>
+  </si>
+  <si>
+    <t>            *  *            number=2</t>
+  </si>
+  <si>
+    <t>            *               number=1</t>
+  </si>
+  <si>
+    <t>        */</t>
+  </si>
+  <si>
+    <t>        int number = 5;</t>
+  </si>
+  <si>
+    <t>        while(number &gt;= 1){</t>
+  </si>
+  <si>
+    <t>            for(int i = 1; i &lt;= number; i++) System.out.print("* ");</t>
+  </si>
+  <si>
+    <t>            System.out.println();</t>
+  </si>
+  <si>
+    <t>            number--;</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    // 001 Shape 1</t>
+  </si>
+  <si>
+    <t>    public static void main001(String[] args) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            *                number=1 </t>
+  </si>
+  <si>
+    <t>            *  *             number=2</t>
+  </si>
+  <si>
+    <t>            *  *  *          number=3</t>
+  </si>
+  <si>
+    <t>            *  *  *  *       number=4</t>
+  </si>
+  <si>
+    <t>            *  *  *  *  *    number=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>        int number = 1;</t>
+  </si>
+  <si>
+    <t>        while(number &lt;= 9){</t>
+  </si>
+  <si>
+    <t>            for(int i = 1; i &lt;= number; i++){</t>
+  </si>
+  <si>
+    <t>                System.out.print("* ");</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>            number++;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +302,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -318,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -329,9 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -431,6 +532,99 @@
         <a:xfrm>
           <a:off x="762000" y="14497050"/>
           <a:ext cx="7342857" cy="2279365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250F9579-2460-AFBE-D4F2-A16FD8A870F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777875" y="13617575"/>
+          <a:ext cx="13814425" cy="5483158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>37205</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>50146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F4EF78-B725-1C16-DFEB-EB36FD557E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="19735800"/>
+          <a:ext cx="7161905" cy="5231746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="R66" sqref="R66"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -781,7 +975,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="4"/>
-      <c r="E12" s="10" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="5"/>
@@ -827,293 +1021,174 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4"/>
-      <c r="C21" s="11" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="4"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="I23" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11" t="s">
+      <c r="H24" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="11"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
+      <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11" t="s">
+      <c r="H25" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="11"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
+      <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="4"/>
-      <c r="C28" s="11" t="s">
+      <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="4"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="4"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
+      <c r="D30" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="4"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
+      <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="4"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
+      <c r="E32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
+      <c r="F33" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="4"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="E34" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="4"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
+      <c r="E35" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="4"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="E36" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="4"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11" t="s">
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="4"/>
-      <c r="C38" s="11" t="s">
+      <c r="C38" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10">
@@ -1128,7 +1203,7 @@
       <c r="J40" s="9"/>
     </row>
     <row r="63" spans="2:13">
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="2"/>
@@ -1145,142 +1220,42 @@
     </row>
     <row r="64" spans="2:13">
       <c r="B64" s="4"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="2:13">
       <c r="B65" s="4"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="2:13">
       <c r="B66" s="4"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="2:13">
       <c r="B67" s="4"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="2:13">
       <c r="B68" s="4"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="2:13">
       <c r="B69" s="4"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="2:13">
       <c r="B70" s="4"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="4"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
       <c r="M71" s="5"/>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="4"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="4"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="2:13">
@@ -1302,4 +1277,906 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF6AACA-9772-4F15-90E1-CC86249F340A}">
+  <dimension ref="B3:M110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="4"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="4"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="4"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="B88" s="4"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89" s="4"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="4"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="5"/>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="B91" s="4"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="5"/>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="4"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="5"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="5"/>
+    </row>
+    <row r="94" spans="2:13">
+      <c r="B94" s="4"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="5"/>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95" s="4"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="5"/>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="B96" s="4"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="5"/>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="5"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="4"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="5"/>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="4"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="5"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="4"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="5"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="4"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="5"/>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="B102" s="4"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="5"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="4"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="5"/>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" s="4"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="5"/>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" s="4"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="5"/>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="B106" s="4"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="5"/>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="5"/>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="5"/>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="B109" s="4"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="5"/>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
+++ b/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB8725-5E0C-4392-9B2B-CD8395A21D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F5881-5F23-4FC7-A58F-4119E258A012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="1110" windowWidth="25770" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30345" yWindow="1110" windowWidth="25770" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shape 01" sheetId="1" r:id="rId1"/>
     <sheet name="Shape 02" sheetId="2" r:id="rId2"/>
+    <sheet name="Shape 03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -268,6 +269,54 @@
   </si>
   <si>
     <t>            number++;</t>
+  </si>
+  <si>
+    <t>                         *</t>
+  </si>
+  <si>
+    <t>                      *  *</t>
+  </si>
+  <si>
+    <t>                   *  *  *</t>
+  </si>
+  <si>
+    <t>                *  *  *  *</t>
+  </si>
+  <si>
+    <t>             *  *  *  *  *</t>
+  </si>
+  <si>
+    <t>                *   1   4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               **   2   3   </t>
+  </si>
+  <si>
+    <t>              ***</t>
+  </si>
+  <si>
+    <t>             ****</t>
+  </si>
+  <si>
+    <t>            *****</t>
+  </si>
+  <si>
+    <t>        while(number &lt;= 5){</t>
+  </si>
+  <si>
+    <t>            for(int i = 1; i&lt;= 5-number; i++) System.out.print("  ");</t>
+  </si>
+  <si>
+    <t>            for(int j = 1; j&lt;= number; j++) System.out.print("* ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    // 002 Shape 2</t>
+  </si>
+  <si>
+    <t>    public static void main002(String[] args) {</t>
   </si>
 </sst>
 </file>
@@ -418,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -430,8 +479,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -625,6 +675,99 @@
         <a:xfrm>
           <a:off x="762000" y="19735800"/>
           <a:ext cx="7161905" cy="5231746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>325272</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>21350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8B56A0-AC25-FE6E-C318-18A3A4ABB956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="19307175"/>
+          <a:ext cx="14022222" cy="7003175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>532442</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>30932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BDD170-FF1F-AEB1-9F97-D76D41BE2356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="27089100"/>
+          <a:ext cx="7666667" cy="6546032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1283,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF6AACA-9772-4F15-90E1-CC86249F340A}">
   <dimension ref="B3:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1401,416 +1544,265 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="4"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="4"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8">
@@ -1840,324 +1832,94 @@
     </row>
     <row r="87" spans="2:13">
       <c r="B87" s="4"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
       <c r="M87" s="5"/>
     </row>
     <row r="88" spans="2:13">
       <c r="B88" s="4"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="2:13">
       <c r="B89" s="4"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="2:13">
       <c r="B90" s="4"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="2:13">
       <c r="B91" s="4"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
       <c r="M91" s="5"/>
     </row>
     <row r="92" spans="2:13">
       <c r="B92" s="4"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="2:13">
       <c r="B93" s="4"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
       <c r="M93" s="5"/>
     </row>
     <row r="94" spans="2:13">
       <c r="B94" s="4"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
       <c r="M94" s="5"/>
     </row>
     <row r="95" spans="2:13">
       <c r="B95" s="4"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
       <c r="M95" s="5"/>
     </row>
     <row r="96" spans="2:13">
       <c r="B96" s="4"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
       <c r="M96" s="5"/>
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="4"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
       <c r="M97" s="5"/>
     </row>
     <row r="98" spans="2:13">
       <c r="B98" s="4"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
       <c r="M98" s="5"/>
     </row>
     <row r="99" spans="2:13">
       <c r="B99" s="4"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
       <c r="M99" s="5"/>
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="4"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
       <c r="M100" s="5"/>
     </row>
     <row r="101" spans="2:13">
       <c r="B101" s="4"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
       <c r="M101" s="5"/>
     </row>
     <row r="102" spans="2:13">
       <c r="B102" s="4"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
       <c r="M102" s="5"/>
     </row>
     <row r="103" spans="2:13">
       <c r="B103" s="4"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
       <c r="M103" s="5"/>
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="4"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
       <c r="M104" s="5"/>
     </row>
     <row r="105" spans="2:13">
       <c r="B105" s="4"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
       <c r="M105" s="5"/>
     </row>
     <row r="106" spans="2:13">
       <c r="B106" s="4"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
       <c r="M106" s="5"/>
     </row>
     <row r="107" spans="2:13">
       <c r="B107" s="4"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
       <c r="M107" s="5"/>
     </row>
     <row r="108" spans="2:13">
       <c r="B108" s="4"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
       <c r="M108" s="5"/>
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="4"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
       <c r="M109" s="5"/>
     </row>
     <row r="110" spans="2:13">
@@ -2179,4 +1941,1265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA4B576-B925-4A44-B72B-D8100BE79D60}">
+  <dimension ref="B3:M148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="S131" sqref="R131:S131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="4"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="B118" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="3"/>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="B119" s="4"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="5"/>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="B120" s="4"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="5"/>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="B121" s="4"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="5"/>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="B122" s="4"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="5"/>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="B123" s="4"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="5"/>
+    </row>
+    <row r="124" spans="2:13">
+      <c r="B124" s="4"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="5"/>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="B125" s="4"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="5"/>
+    </row>
+    <row r="126" spans="2:13">
+      <c r="B126" s="4"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="5"/>
+    </row>
+    <row r="127" spans="2:13">
+      <c r="B127" s="4"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="5"/>
+    </row>
+    <row r="128" spans="2:13">
+      <c r="B128" s="4"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="5"/>
+    </row>
+    <row r="129" spans="2:13">
+      <c r="B129" s="4"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="5"/>
+    </row>
+    <row r="130" spans="2:13">
+      <c r="B130" s="4"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="5"/>
+    </row>
+    <row r="131" spans="2:13">
+      <c r="B131" s="4"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="5"/>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="B132" s="4"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="5"/>
+    </row>
+    <row r="133" spans="2:13">
+      <c r="B133" s="4"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="5"/>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="B134" s="4"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="5"/>
+    </row>
+    <row r="135" spans="2:13">
+      <c r="B135" s="4"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="5"/>
+    </row>
+    <row r="136" spans="2:13">
+      <c r="B136" s="4"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="5"/>
+    </row>
+    <row r="137" spans="2:13">
+      <c r="B137" s="4"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138" s="4"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="5"/>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139" s="4"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
+      <c r="M139" s="5"/>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="4"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="5"/>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="4"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="5"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="4"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="5"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143" s="4"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
+      <c r="M143" s="5"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="4"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="5"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="4"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="5"/>
+    </row>
+    <row r="146" spans="2:13">
+      <c r="B146" s="4"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="5"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" s="4"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
+      <c r="M147" s="5"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="7"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
+++ b/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F5881-5F23-4FC7-A58F-4119E258A012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FBF74C-9A61-4884-9867-6037B9022542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="1110" windowWidth="25770" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30345" yWindow="1110" windowWidth="25770" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shape 01" sheetId="1" r:id="rId1"/>
     <sheet name="Shape 02" sheetId="2" r:id="rId2"/>
     <sheet name="Shape 03" sheetId="3" r:id="rId3"/>
+    <sheet name="Shape 04" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="121">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -317,6 +318,117 @@
   </si>
   <si>
     <t>    public static void main002(String[] args) {</t>
+  </si>
+  <si>
+    <t>// 004 Shape 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   *  *  *  *    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *  *  *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *  *</t>
+  </si>
+  <si>
+    <t>int number = 9;</t>
+  </si>
+  <si>
+    <t>while(number &gt;= 1){</t>
+  </si>
+  <si>
+    <t>for(int i = 1; i&lt;= 9-number; i++) System.out.print("  ");</t>
+  </si>
+  <si>
+    <t>for(int j = 1; j&lt;= number; j++) System.out.print("* ");</t>
+  </si>
+  <si>
+    <t>number--;</t>
+  </si>
+  <si>
+    <t>// 003 Shape 3</t>
+  </si>
+  <si>
+    <t>public static void main003(String[] args) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      *  *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   *  *  *</t>
+  </si>
+  <si>
+    <t>*  *  *  *</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *  *  *  *  *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ****</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *****</t>
+  </si>
+  <si>
+    <t>while(number &lt;= 5){</t>
+  </si>
+  <si>
+    <t>for(int i = 1; i&lt;= 5-number; i++) System.out.print("  ");</t>
+  </si>
+  <si>
+    <t>// 002 Shape 2</t>
+  </si>
+  <si>
+    <t>public static void main002(String[] args) {</t>
+  </si>
+  <si>
+    <t>number=5</t>
+  </si>
+  <si>
+    <t>number=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*  *  *  </t>
+  </si>
+  <si>
+    <t>number=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*  *  </t>
+  </si>
+  <si>
+    <t>number=2</t>
+  </si>
+  <si>
+    <t>number=1</t>
+  </si>
+  <si>
+    <t>int number = 5;</t>
+  </si>
+  <si>
+    <t>for(int i = 1; i &lt;= number; i++) System.out.print("* ");</t>
+  </si>
+  <si>
+    <t>// 001 Shape 1</t>
+  </si>
+  <si>
+    <t>public static void main001(String[] args) {</t>
   </si>
 </sst>
 </file>
@@ -482,7 +594,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -779,6 +891,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>353846</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>132548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AA3D93-5D9B-13E0-4252-E6DCC0F58F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="24117300"/>
+          <a:ext cx="14028571" cy="6419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177799</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>74311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9B18EA-5CF1-3901-82D5-79B0FB505F3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="835024" y="31210250"/>
+          <a:ext cx="7775575" cy="6811661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1947,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA4B576-B925-4A44-B72B-D8100BE79D60}">
   <dimension ref="B3:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="S131" sqref="R131:S131"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2065,691 +2270,439 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="4"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
       <c r="H72" s="5"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
       <c r="H75" s="5"/>
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
       <c r="H76" s="5"/>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
       <c r="H80" s="5"/>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
       <c r="H81" s="5"/>
     </row>
     <row r="82" spans="2:8">
@@ -2779,408 +2732,118 @@
     </row>
     <row r="119" spans="2:13">
       <c r="B119" s="4"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="13"/>
       <c r="M119" s="5"/>
     </row>
     <row r="120" spans="2:13">
       <c r="B120" s="4"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
       <c r="M120" s="5"/>
     </row>
     <row r="121" spans="2:13">
       <c r="B121" s="4"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
       <c r="M121" s="5"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="4"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="2:13">
       <c r="B123" s="4"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="4"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
       <c r="M124" s="5"/>
     </row>
     <row r="125" spans="2:13">
       <c r="B125" s="4"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
       <c r="M125" s="5"/>
     </row>
     <row r="126" spans="2:13">
       <c r="B126" s="4"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
       <c r="M126" s="5"/>
     </row>
     <row r="127" spans="2:13">
       <c r="B127" s="4"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="2:13">
       <c r="B128" s="4"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
       <c r="M128" s="5"/>
     </row>
     <row r="129" spans="2:13">
       <c r="B129" s="4"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="2:13">
       <c r="B130" s="4"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
       <c r="M130" s="5"/>
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="4"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
       <c r="M131" s="5"/>
     </row>
     <row r="132" spans="2:13">
       <c r="B132" s="4"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
       <c r="M132" s="5"/>
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="4"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
       <c r="M133" s="5"/>
     </row>
     <row r="134" spans="2:13">
       <c r="B134" s="4"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
       <c r="M134" s="5"/>
     </row>
     <row r="135" spans="2:13">
       <c r="B135" s="4"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="13"/>
       <c r="M135" s="5"/>
     </row>
     <row r="136" spans="2:13">
       <c r="B136" s="4"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
       <c r="M136" s="5"/>
     </row>
     <row r="137" spans="2:13">
       <c r="B137" s="4"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
       <c r="M137" s="5"/>
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="4"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
       <c r="M138" s="5"/>
     </row>
     <row r="139" spans="2:13">
       <c r="B139" s="4"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
-      <c r="K139" s="13"/>
-      <c r="L139" s="13"/>
       <c r="M139" s="5"/>
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="4"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="13"/>
       <c r="M140" s="5"/>
     </row>
     <row r="141" spans="2:13">
       <c r="B141" s="4"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="13"/>
       <c r="M141" s="5"/>
     </row>
     <row r="142" spans="2:13">
       <c r="B142" s="4"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="13"/>
       <c r="M142" s="5"/>
     </row>
     <row r="143" spans="2:13">
       <c r="B143" s="4"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="13"/>
-      <c r="K143" s="13"/>
-      <c r="L143" s="13"/>
       <c r="M143" s="5"/>
     </row>
     <row r="144" spans="2:13">
       <c r="B144" s="4"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="13"/>
       <c r="M144" s="5"/>
     </row>
     <row r="145" spans="2:13">
       <c r="B145" s="4"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
       <c r="M145" s="5"/>
     </row>
     <row r="146" spans="2:13">
       <c r="B146" s="4"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
       <c r="M146" s="5"/>
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="4"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
       <c r="M147" s="5"/>
     </row>
     <row r="148" spans="2:13">
@@ -3202,4 +2865,1772 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE543483-365D-42F7-A4CE-B06E497C5D8D}">
+  <dimension ref="B3:N167"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="T140" sqref="T140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4"/>
+      <c r="C22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="4"/>
+      <c r="C23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="4"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="4"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="4"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="4"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="4"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="4"/>
+      <c r="C30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="4"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="4"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="4"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="4"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="4"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="4"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="4"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="4"/>
+      <c r="C39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="4"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="4"/>
+      <c r="C41" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="4"/>
+      <c r="C42" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="4"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="4"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="4"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1</v>
+      </c>
+      <c r="H50" s="13">
+        <v>4</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="4"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="13">
+        <v>2</v>
+      </c>
+      <c r="G51" s="13">
+        <v>3</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="4"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="4"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="4"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="4"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="4"/>
+      <c r="C64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="4"/>
+      <c r="C66" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="4"/>
+      <c r="C67" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="4"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="4"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I72" s="13"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4"/>
+      <c r="C74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4"/>
+      <c r="C81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="4"/>
+      <c r="C83" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="4"/>
+      <c r="C84" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="4"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="4"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="4"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="13"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="4"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" s="13"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="4"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="4"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="4"/>
+      <c r="C91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="4"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="4"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="4"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="4"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="4"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="4"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="4"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="4"/>
+      <c r="C101" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="9"/>
+    </row>
+    <row r="136" spans="2:14">
+      <c r="B136" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="2:14">
+      <c r="B137" s="4"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="B138" s="4"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="2:14">
+      <c r="B139" s="4"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
+      <c r="M139" s="13"/>
+      <c r="N139" s="5"/>
+    </row>
+    <row r="140" spans="2:14">
+      <c r="B140" s="4"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="2:14">
+      <c r="B141" s="4"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="5"/>
+    </row>
+    <row r="142" spans="2:14">
+      <c r="B142" s="4"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="13"/>
+      <c r="N142" s="5"/>
+    </row>
+    <row r="143" spans="2:14">
+      <c r="B143" s="4"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
+      <c r="M143" s="13"/>
+      <c r="N143" s="5"/>
+    </row>
+    <row r="144" spans="2:14">
+      <c r="B144" s="4"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="5"/>
+    </row>
+    <row r="145" spans="2:14">
+      <c r="B145" s="4"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="2:14">
+      <c r="B146" s="4"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="13"/>
+      <c r="N146" s="5"/>
+    </row>
+    <row r="147" spans="2:14">
+      <c r="B147" s="4"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
+      <c r="M147" s="13"/>
+      <c r="N147" s="5"/>
+    </row>
+    <row r="148" spans="2:14">
+      <c r="B148" s="4"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
+      <c r="M148" s="13"/>
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="2:14">
+      <c r="B149" s="4"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="13"/>
+      <c r="M149" s="13"/>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="2:14">
+      <c r="B150" s="4"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="2:14">
+      <c r="B151" s="4"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="13"/>
+      <c r="M151" s="13"/>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152" spans="2:14">
+      <c r="B152" s="4"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="13"/>
+      <c r="N152" s="5"/>
+    </row>
+    <row r="153" spans="2:14">
+      <c r="B153" s="4"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="13"/>
+      <c r="N153" s="5"/>
+    </row>
+    <row r="154" spans="2:14">
+      <c r="B154" s="4"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="13"/>
+      <c r="M154" s="13"/>
+      <c r="N154" s="5"/>
+    </row>
+    <row r="155" spans="2:14">
+      <c r="B155" s="4"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="5"/>
+    </row>
+    <row r="156" spans="2:14">
+      <c r="B156" s="4"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="5"/>
+    </row>
+    <row r="157" spans="2:14">
+      <c r="B157" s="4"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="13"/>
+      <c r="M157" s="13"/>
+      <c r="N157" s="5"/>
+    </row>
+    <row r="158" spans="2:14">
+      <c r="B158" s="4"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="13"/>
+      <c r="M158" s="13"/>
+      <c r="N158" s="5"/>
+    </row>
+    <row r="159" spans="2:14">
+      <c r="B159" s="4"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="13"/>
+      <c r="M159" s="13"/>
+      <c r="N159" s="5"/>
+    </row>
+    <row r="160" spans="2:14">
+      <c r="B160" s="4"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="5"/>
+    </row>
+    <row r="161" spans="2:14">
+      <c r="B161" s="4"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="13"/>
+      <c r="M161" s="13"/>
+      <c r="N161" s="5"/>
+    </row>
+    <row r="162" spans="2:14">
+      <c r="B162" s="4"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="13"/>
+      <c r="M162" s="13"/>
+      <c r="N162" s="5"/>
+    </row>
+    <row r="163" spans="2:14">
+      <c r="B163" s="4"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="13"/>
+      <c r="M163" s="13"/>
+      <c r="N163" s="5"/>
+    </row>
+    <row r="164" spans="2:14">
+      <c r="B164" s="4"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="13"/>
+      <c r="M164" s="13"/>
+      <c r="N164" s="5"/>
+    </row>
+    <row r="165" spans="2:14">
+      <c r="B165" s="4"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
+      <c r="L165" s="13"/>
+      <c r="M165" s="13"/>
+      <c r="N165" s="5"/>
+    </row>
+    <row r="166" spans="2:14">
+      <c r="B166" s="4"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+      <c r="K166" s="13"/>
+      <c r="L166" s="13"/>
+      <c r="M166" s="13"/>
+      <c r="N166" s="5"/>
+    </row>
+    <row r="167" spans="2:14">
+      <c r="B167" s="7"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
+++ b/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FBF74C-9A61-4884-9867-6037B9022542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA45C2C-D8B2-4B19-AF56-78B98B8425DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="1110" windowWidth="25770" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30345" yWindow="1110" windowWidth="25770" windowHeight="13920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shape 01" sheetId="1" r:id="rId1"/>
     <sheet name="Shape 02" sheetId="2" r:id="rId2"/>
     <sheet name="Shape 03" sheetId="3" r:id="rId3"/>
     <sheet name="Shape 04" sheetId="4" r:id="rId4"/>
+    <sheet name="Shape 05" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="128">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -429,6 +430,27 @@
   </si>
   <si>
     <t>public static void main001(String[] args) {</t>
+  </si>
+  <si>
+    <t>// 005 Shape 5</t>
+  </si>
+  <si>
+    <t>1  2</t>
+  </si>
+  <si>
+    <t>1  2  3</t>
+  </si>
+  <si>
+    <t>1  2  3  4</t>
+  </si>
+  <si>
+    <t>1  2  3  4  5</t>
+  </si>
+  <si>
+    <t>System.out.print(i + " ");</t>
+  </si>
+  <si>
+    <t>public static void main004(String[] args) {</t>
   </si>
 </sst>
 </file>
@@ -984,6 +1006,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>417342</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>132490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D433BE1F-7F16-CDB2-256D-BE707E8CE07A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="28689300"/>
+          <a:ext cx="14066667" cy="6876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323009</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>107180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771C4BEA-4847-1061-F2BE-02D137B2ED12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="36233100"/>
+          <a:ext cx="6723809" cy="6165080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2871,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE543483-365D-42F7-A4CE-B06E497C5D8D}">
   <dimension ref="B3:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="T140" sqref="T140"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2991,1148 +3106,733 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4"/>
-      <c r="C22" s="13" t="s">
+      <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="4"/>
-      <c r="C23" s="13" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="4"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="6"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="4"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="13"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="4"/>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="13"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="4"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="4"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="13"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="13"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="4"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="13"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="4"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="13"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="4"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="13"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="4"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="13"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="4"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="13"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="4"/>
-      <c r="C39" s="13" t="s">
+      <c r="C39" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="4"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="4"/>
-      <c r="C41" s="13" t="s">
+      <c r="C41" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="4"/>
-      <c r="C42" s="13" t="s">
+      <c r="C42" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="4"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13" t="s">
+      <c r="D43" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="4"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
+      <c r="F44" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="4"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
+      <c r="F45" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
+      <c r="F46" t="s">
         <v>99</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
+      <c r="F47" t="s">
         <v>100</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="4"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13" t="s">
+      <c r="E48" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="4"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="4"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
+      <c r="D50" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13" t="s">
+      <c r="F50" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50">
         <v>4</v>
       </c>
-      <c r="I50" s="13"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="4"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13" t="s">
+      <c r="D51" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51">
         <v>2</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51">
         <v>3</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="4"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
+      <c r="D52" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="4"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13" t="s">
+      <c r="D53" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="4"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13" t="s">
+      <c r="D54" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="4"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
+      <c r="D55" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="4"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13" t="s">
+      <c r="D57" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="4"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13" t="s">
+      <c r="D58" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="4"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
+      <c r="E59" t="s">
         <v>107</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="4"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
+      <c r="E60" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="4"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13" t="s">
+      <c r="E61" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="4"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
+      <c r="E62" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="4"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13" t="s">
+      <c r="D63" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="4"/>
-      <c r="C64" s="13" t="s">
+      <c r="C64" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="4"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="4"/>
-      <c r="C66" s="13" t="s">
+      <c r="C66" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="4"/>
-      <c r="C67" s="13" t="s">
+      <c r="C67" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="4"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13" t="s">
+      <c r="D68" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="4"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13" t="s">
+      <c r="D69" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" t="s">
         <v>110</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="4"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
+      <c r="E70" t="s">
         <v>100</v>
       </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13" t="s">
+      <c r="G70" t="s">
         <v>111</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="4"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13" t="s">
+      <c r="E71" t="s">
         <v>112</v>
       </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13" t="s">
+      <c r="G71" t="s">
         <v>113</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="4"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13" t="s">
+      <c r="E72" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13" t="s">
+      <c r="H72" t="s">
         <v>115</v>
       </c>
-      <c r="I72" s="13"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="4"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13" t="s">
+      <c r="E73" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13" t="s">
+      <c r="I73" t="s">
         <v>116</v>
       </c>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="4"/>
-      <c r="C74" s="13" t="s">
+      <c r="C74" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="4"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13" t="s">
+      <c r="D75" t="s">
         <v>117</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="4"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13" t="s">
+      <c r="D76" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="4"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13" t="s">
+      <c r="E77" t="s">
         <v>118</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="4"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13" t="s">
+      <c r="E78" t="s">
         <v>35</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="4"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13" t="s">
+      <c r="E79" t="s">
         <v>94</v>
       </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="4"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13" t="s">
+      <c r="D80" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4"/>
-      <c r="C81" s="13" t="s">
+      <c r="C81" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="4"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="4"/>
-      <c r="C83" s="13" t="s">
+      <c r="C83" t="s">
         <v>119</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="4"/>
-      <c r="C84" s="13" t="s">
+      <c r="C84" t="s">
         <v>120</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="4"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13" t="s">
+      <c r="D85" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="4"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13" t="s">
+      <c r="D86" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13" t="s">
+      <c r="I86" t="s">
         <v>20</v>
       </c>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="4"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13" t="s">
+      <c r="D87" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13" t="s">
+      <c r="H87" t="s">
         <v>22</v>
       </c>
-      <c r="I87" s="13"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="4"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13" t="s">
+      <c r="D88" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" t="s">
         <v>23</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13" t="s">
+      <c r="H88" t="s">
         <v>24</v>
       </c>
-      <c r="I88" s="13"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="4"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13" t="s">
+      <c r="D89" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" t="s">
         <v>25</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" t="s">
         <v>26</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="4"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13" t="s">
+      <c r="D90" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" t="s">
         <v>27</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" t="s">
         <v>28</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="4"/>
-      <c r="C91" s="13" t="s">
+      <c r="C91" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" t="s">
         <v>29</v>
       </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="4"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="4"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13" t="s">
+      <c r="D93" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="4"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13" t="s">
+      <c r="D94" t="s">
         <v>31</v>
       </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="4"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13" t="s">
+      <c r="E95" t="s">
         <v>32</v>
       </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="4"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13" t="s">
+      <c r="F96" t="s">
         <v>33</v>
       </c>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="4"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13" t="s">
+      <c r="E97" t="s">
         <v>34</v>
       </c>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="4"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
+      <c r="E98" t="s">
         <v>35</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="4"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13" t="s">
+      <c r="E99" t="s">
         <v>36</v>
       </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="4"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13" t="s">
+      <c r="D100" t="s">
         <v>34</v>
       </c>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="4"/>
-      <c r="C101" s="13" t="s">
+      <c r="C101" t="s">
         <v>34</v>
       </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
@@ -4165,452 +3865,122 @@
     </row>
     <row r="137" spans="2:14">
       <c r="B137" s="4"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
       <c r="N137" s="5"/>
     </row>
     <row r="138" spans="2:14">
       <c r="B138" s="4"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
       <c r="N138" s="5"/>
     </row>
     <row r="139" spans="2:14">
       <c r="B139" s="4"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
-      <c r="K139" s="13"/>
-      <c r="L139" s="13"/>
-      <c r="M139" s="13"/>
       <c r="N139" s="5"/>
     </row>
     <row r="140" spans="2:14">
       <c r="B140" s="4"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="13"/>
-      <c r="M140" s="13"/>
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="2:14">
       <c r="B141" s="4"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="13"/>
-      <c r="M141" s="13"/>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="2:14">
       <c r="B142" s="4"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="13"/>
-      <c r="M142" s="13"/>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="2:14">
       <c r="B143" s="4"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="13"/>
-      <c r="K143" s="13"/>
-      <c r="L143" s="13"/>
-      <c r="M143" s="13"/>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="2:14">
       <c r="B144" s="4"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="13"/>
-      <c r="M144" s="13"/>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="2:14">
       <c r="B145" s="4"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="2:14">
       <c r="B146" s="4"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
-      <c r="M146" s="13"/>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="2:14">
       <c r="B147" s="4"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
-      <c r="M147" s="13"/>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="2:14">
       <c r="B148" s="4"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="13"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="13"/>
-      <c r="M148" s="13"/>
       <c r="N148" s="5"/>
     </row>
     <row r="149" spans="2:14">
       <c r="B149" s="4"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="13"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="13"/>
-      <c r="M149" s="13"/>
       <c r="N149" s="5"/>
     </row>
     <row r="150" spans="2:14">
       <c r="B150" s="4"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="13"/>
-      <c r="I150" s="13"/>
-      <c r="J150" s="13"/>
-      <c r="K150" s="13"/>
-      <c r="L150" s="13"/>
-      <c r="M150" s="13"/>
       <c r="N150" s="5"/>
     </row>
     <row r="151" spans="2:14">
       <c r="B151" s="4"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="13"/>
-      <c r="J151" s="13"/>
-      <c r="K151" s="13"/>
-      <c r="L151" s="13"/>
-      <c r="M151" s="13"/>
       <c r="N151" s="5"/>
     </row>
     <row r="152" spans="2:14">
       <c r="B152" s="4"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
       <c r="N152" s="5"/>
     </row>
     <row r="153" spans="2:14">
       <c r="B153" s="4"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="13"/>
-      <c r="J153" s="13"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="13"/>
       <c r="N153" s="5"/>
     </row>
     <row r="154" spans="2:14">
       <c r="B154" s="4"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="13"/>
-      <c r="J154" s="13"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="13"/>
-      <c r="M154" s="13"/>
       <c r="N154" s="5"/>
     </row>
     <row r="155" spans="2:14">
       <c r="B155" s="4"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="13"/>
-      <c r="J155" s="13"/>
-      <c r="K155" s="13"/>
-      <c r="L155" s="13"/>
-      <c r="M155" s="13"/>
       <c r="N155" s="5"/>
     </row>
     <row r="156" spans="2:14">
       <c r="B156" s="4"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
       <c r="N156" s="5"/>
     </row>
     <row r="157" spans="2:14">
       <c r="B157" s="4"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="13"/>
-      <c r="J157" s="13"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
       <c r="N157" s="5"/>
     </row>
     <row r="158" spans="2:14">
       <c r="B158" s="4"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
-      <c r="H158" s="13"/>
-      <c r="I158" s="13"/>
-      <c r="J158" s="13"/>
-      <c r="K158" s="13"/>
-      <c r="L158" s="13"/>
-      <c r="M158" s="13"/>
       <c r="N158" s="5"/>
     </row>
     <row r="159" spans="2:14">
       <c r="B159" s="4"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="13"/>
-      <c r="I159" s="13"/>
-      <c r="J159" s="13"/>
-      <c r="K159" s="13"/>
-      <c r="L159" s="13"/>
-      <c r="M159" s="13"/>
       <c r="N159" s="5"/>
     </row>
     <row r="160" spans="2:14">
       <c r="B160" s="4"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
       <c r="N160" s="5"/>
     </row>
     <row r="161" spans="2:14">
       <c r="B161" s="4"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
-      <c r="H161" s="13"/>
-      <c r="I161" s="13"/>
-      <c r="J161" s="13"/>
-      <c r="K161" s="13"/>
-      <c r="L161" s="13"/>
-      <c r="M161" s="13"/>
       <c r="N161" s="5"/>
     </row>
     <row r="162" spans="2:14">
       <c r="B162" s="4"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13"/>
-      <c r="J162" s="13"/>
-      <c r="K162" s="13"/>
-      <c r="L162" s="13"/>
-      <c r="M162" s="13"/>
       <c r="N162" s="5"/>
     </row>
     <row r="163" spans="2:14">
       <c r="B163" s="4"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="13"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="13"/>
-      <c r="L163" s="13"/>
-      <c r="M163" s="13"/>
       <c r="N163" s="5"/>
     </row>
     <row r="164" spans="2:14">
       <c r="B164" s="4"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="13"/>
-      <c r="L164" s="13"/>
-      <c r="M164" s="13"/>
       <c r="N164" s="5"/>
     </row>
     <row r="165" spans="2:14">
       <c r="B165" s="4"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="13"/>
-      <c r="K165" s="13"/>
-      <c r="L165" s="13"/>
-      <c r="M165" s="13"/>
       <c r="N165" s="5"/>
     </row>
     <row r="166" spans="2:14">
       <c r="B166" s="4"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13"/>
-      <c r="J166" s="13"/>
-      <c r="K166" s="13"/>
-      <c r="L166" s="13"/>
-      <c r="M166" s="13"/>
       <c r="N166" s="5"/>
     </row>
     <row r="167" spans="2:14">
@@ -4633,4 +4003,1929 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B3BBC9-59A8-480C-A85D-0F3B185779CD}">
+  <dimension ref="B3:L186"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="R161" sqref="R161"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4"/>
+      <c r="C22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="4"/>
+      <c r="C23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="4"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="4"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="4"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="4"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="4"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="4"/>
+      <c r="C30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="4"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="4"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="4"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="4"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="4"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="4"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="4"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="4"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="4"/>
+      <c r="C40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="4"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="4"/>
+      <c r="C42" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="4"/>
+      <c r="C43" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="4"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="4"/>
+      <c r="C50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="4"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="4"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="4"/>
+      <c r="C59" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4"/>
+      <c r="C61" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="4"/>
+      <c r="C62" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="4"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="4"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="4"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="4"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="4"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="4"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="13">
+        <v>1</v>
+      </c>
+      <c r="H70" s="13">
+        <v>4</v>
+      </c>
+      <c r="I70" s="13"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="13">
+        <v>2</v>
+      </c>
+      <c r="G71" s="13">
+        <v>3</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="4"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="4"/>
+      <c r="C84" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="4"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="4"/>
+      <c r="C86" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="4"/>
+      <c r="C87" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="4"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="4"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="4"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="4"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="4"/>
+      <c r="C94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="4"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="4"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="4"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="4"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="4"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="4"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="4"/>
+      <c r="C101" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="4"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="4"/>
+      <c r="C103" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="4"/>
+      <c r="C104" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="4"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="4"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="4"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" s="13"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="4"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" s="13"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="4"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="4"/>
+      <c r="C111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="4"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="4"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4"/>
+      <c r="C121" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="158" spans="2:12">
+      <c r="B158" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="3"/>
+    </row>
+    <row r="159" spans="2:12">
+      <c r="B159" s="4"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="2:12">
+      <c r="B160" s="4"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="2:12">
+      <c r="B161" s="4"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="5"/>
+    </row>
+    <row r="162" spans="2:12">
+      <c r="B162" s="4"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="2:12">
+      <c r="B163" s="4"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="5"/>
+    </row>
+    <row r="164" spans="2:12">
+      <c r="B164" s="4"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="5"/>
+    </row>
+    <row r="165" spans="2:12">
+      <c r="B165" s="4"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="2:12">
+      <c r="B166" s="4"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+      <c r="K166" s="13"/>
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="2:12">
+      <c r="B167" s="4"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
+      <c r="L167" s="5"/>
+    </row>
+    <row r="168" spans="2:12">
+      <c r="B168" s="4"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" spans="2:12">
+      <c r="B169" s="4"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
+      <c r="L169" s="5"/>
+    </row>
+    <row r="170" spans="2:12">
+      <c r="B170" s="4"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="13"/>
+      <c r="L170" s="5"/>
+    </row>
+    <row r="171" spans="2:12">
+      <c r="B171" s="4"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="5"/>
+    </row>
+    <row r="172" spans="2:12">
+      <c r="B172" s="4"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="13"/>
+      <c r="L172" s="5"/>
+    </row>
+    <row r="173" spans="2:12">
+      <c r="B173" s="4"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
+      <c r="L173" s="5"/>
+    </row>
+    <row r="174" spans="2:12">
+      <c r="B174" s="4"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
+      <c r="L174" s="5"/>
+    </row>
+    <row r="175" spans="2:12">
+      <c r="B175" s="4"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
+      <c r="K175" s="13"/>
+      <c r="L175" s="5"/>
+    </row>
+    <row r="176" spans="2:12">
+      <c r="B176" s="4"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
+      <c r="L176" s="5"/>
+    </row>
+    <row r="177" spans="2:12">
+      <c r="B177" s="4"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
+      <c r="L177" s="5"/>
+    </row>
+    <row r="178" spans="2:12">
+      <c r="B178" s="4"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
+      <c r="L178" s="5"/>
+    </row>
+    <row r="179" spans="2:12">
+      <c r="B179" s="4"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="13"/>
+      <c r="L179" s="5"/>
+    </row>
+    <row r="180" spans="2:12">
+      <c r="B180" s="4"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+      <c r="L180" s="5"/>
+    </row>
+    <row r="181" spans="2:12">
+      <c r="B181" s="4"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
+      <c r="L181" s="5"/>
+    </row>
+    <row r="182" spans="2:12">
+      <c r="B182" s="4"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
+      <c r="K182" s="13"/>
+      <c r="L182" s="5"/>
+    </row>
+    <row r="183" spans="2:12">
+      <c r="B183" s="4"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+      <c r="K183" s="13"/>
+      <c r="L183" s="5"/>
+    </row>
+    <row r="184" spans="2:12">
+      <c r="B184" s="4"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="13"/>
+      <c r="K184" s="13"/>
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" spans="2:12">
+      <c r="B185" s="4"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="13"/>
+      <c r="L185" s="5"/>
+    </row>
+    <row r="186" spans="2:12">
+      <c r="B186" s="7"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
+      <c r="L186" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
+++ b/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA45C2C-D8B2-4B19-AF56-78B98B8425DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA9B6ED-9D9B-4691-966C-FF55B8D3EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="1110" windowWidth="25770" windowHeight="13920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="1140" windowWidth="25770" windowHeight="13920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shape 01" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Shape 03" sheetId="3" r:id="rId3"/>
     <sheet name="Shape 04" sheetId="4" r:id="rId4"/>
     <sheet name="Shape 05" sheetId="5" r:id="rId5"/>
+    <sheet name="Shape 06" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="169">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -451,6 +452,129 @@
   </si>
   <si>
     <t>public static void main004(String[] args) {</t>
+  </si>
+  <si>
+    <t>    // 006 Shape 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            1       </t>
+  </si>
+  <si>
+    <t>           212      2</t>
+  </si>
+  <si>
+    <t>          32123     23</t>
+  </si>
+  <si>
+    <t>         4321234    234</t>
+  </si>
+  <si>
+    <t>        543212345   2345</t>
+  </si>
+  <si>
+    <t>        String record   = "";</t>
+  </si>
+  <si>
+    <t>        String result   = "";</t>
+  </si>
+  <si>
+    <t>        String space    = "";</t>
+  </si>
+  <si>
+    <t>        String left     = "";</t>
+  </si>
+  <si>
+    <t>        String right    = "";</t>
+  </si>
+  <si>
+    <t>        int number      = 1;</t>
+  </si>
+  <si>
+    <t>            space   = "";</t>
+  </si>
+  <si>
+    <t>            left    = "";</t>
+  </si>
+  <si>
+    <t>            right   = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>            for(int s = 1; s&lt;= (9 - number) ; s++) space += " ";</t>
+  </si>
+  <si>
+    <t>            for(int l = number; l &gt;= 2 ; l--) left += l;</t>
+  </si>
+  <si>
+    <t>            for(int r = 2; r &lt;= number ; r++) right += r;</t>
+  </si>
+  <si>
+    <t>            record  = space + left + "1" + right + "\n";</t>
+  </si>
+  <si>
+    <t>            result  += record;</t>
+  </si>
+  <si>
+    <t>        System.out.println(result);</t>
+  </si>
+  <si>
+    <t>    // 005 Shape 5</t>
+  </si>
+  <si>
+    <t>    public static void main005(String[] args) {</t>
+  </si>
+  <si>
+    <t>            1</t>
+  </si>
+  <si>
+    <t>            1  2</t>
+  </si>
+  <si>
+    <t>            1  2  3</t>
+  </si>
+  <si>
+    <t>            1  2  3  4</t>
+  </si>
+  <si>
+    <t>            1  2  3  4  5</t>
+  </si>
+  <si>
+    <t>                System.out.print(i + " ");</t>
+  </si>
+  <si>
+    <t>    // 004 Shape 4</t>
+  </si>
+  <si>
+    <t>    public static void main004(String[] args) {</t>
+  </si>
+  <si>
+    <t>            *  *  *  *  *</t>
+  </si>
+  <si>
+    <t>               *  *  *  *    </t>
+  </si>
+  <si>
+    <t>                  *  *  *</t>
+  </si>
+  <si>
+    <t>                     *  *</t>
+  </si>
+  <si>
+    <t>                        *</t>
+  </si>
+  <si>
+    <t>        int number = 9;</t>
+  </si>
+  <si>
+    <t>            for(int i = 1; i&lt;= 9-number; i++) System.out.print("  ");</t>
+  </si>
+  <si>
+    <t>    // 003 Shape 3</t>
+  </si>
+  <si>
+    <t>    public static void main003(String[] args) {</t>
   </si>
 </sst>
 </file>
@@ -616,7 +740,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1099,6 +1223,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>268130</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>40092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DB915F-A118-CBE9-8070-B4723DCC8294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="758825" y="36515675"/>
+          <a:ext cx="13968255" cy="9473017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360945</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>132262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC584960-1CD9-CAD3-C8DC-67FDCB7E409E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="46748700"/>
+          <a:ext cx="8038095" cy="8704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4009,8 +4226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B3BBC9-59A8-480C-A85D-0F3B185779CD}">
   <dimension ref="B3:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="R161" sqref="R161"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="O168" sqref="O168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4129,1408 +4346,888 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4"/>
-      <c r="C22" s="13" t="s">
+      <c r="C22" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="4"/>
-      <c r="C23" s="13" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="4"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="13"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="4"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="13"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="4"/>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="13"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="4"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="4"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="13"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="13"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="4"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="13"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="4"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="13"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="4"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="13"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="4"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="13"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="4"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="13"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="4"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="13"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="4"/>
-      <c r="C40" s="13" t="s">
+      <c r="C40" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="4"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="4"/>
-      <c r="C42" s="13" t="s">
+      <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="4"/>
-      <c r="C43" s="13" t="s">
+      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="4"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13" t="s">
+      <c r="D44" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="4"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13" t="s">
+      <c r="D45" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13" t="s">
+      <c r="D46" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13" t="s">
+      <c r="D47" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="4"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13" t="s">
+      <c r="D48" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" t="s">
         <v>89</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="4"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13" t="s">
+      <c r="D49" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="13"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="4"/>
-      <c r="C50" s="13" t="s">
+      <c r="C50" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="4"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="4"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
+      <c r="D52" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="4"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13" t="s">
+      <c r="D53" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="4"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13" t="s">
+      <c r="E54" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="4"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
+      <c r="E55" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
+      <c r="E56" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="4"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
+      <c r="E57" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="4"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13" t="s">
+      <c r="D58" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="4"/>
-      <c r="C59" s="13" t="s">
+      <c r="C59" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="4"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="4"/>
-      <c r="C61" s="13" t="s">
+      <c r="C61" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="4"/>
-      <c r="C62" s="13" t="s">
+      <c r="C62" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="4"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13" t="s">
+      <c r="D63" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="4"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13" t="s">
+      <c r="F64" t="s">
         <v>97</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="4"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13" t="s">
+      <c r="F65" t="s">
         <v>98</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="4"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13" t="s">
+      <c r="F66" t="s">
         <v>99</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="4"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13" t="s">
+      <c r="F67" t="s">
         <v>100</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="4"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
+      <c r="E68" t="s">
         <v>101</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="4"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="4"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13" t="s">
+      <c r="D70" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13" t="s">
+      <c r="F70" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70">
         <v>1</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70">
         <v>4</v>
       </c>
-      <c r="I70" s="13"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="4"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13" t="s">
+      <c r="D71" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" t="s">
         <v>102</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71">
         <v>2</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71">
         <v>3</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="4"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13" t="s">
+      <c r="D72" t="s">
         <v>103</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="4"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13" t="s">
+      <c r="D73" t="s">
         <v>104</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="4"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13" t="s">
+      <c r="D74" t="s">
         <v>105</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="4"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13" t="s">
+      <c r="D75" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="4"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="4"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13" t="s">
+      <c r="D77" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="4"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13" t="s">
+      <c r="D78" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="4"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13" t="s">
+      <c r="E79" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="4"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13" t="s">
+      <c r="E80" t="s">
         <v>93</v>
       </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
+      <c r="E81" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="4"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13" t="s">
+      <c r="E82" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="4"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13" t="s">
+      <c r="D83" t="s">
         <v>34</v>
       </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="4"/>
-      <c r="C84" s="13" t="s">
+      <c r="C84" t="s">
         <v>34</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="4"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="4"/>
-      <c r="C86" s="13" t="s">
+      <c r="C86" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="4"/>
-      <c r="C87" s="13" t="s">
+      <c r="C87" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="4"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13" t="s">
+      <c r="D88" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="4"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13" t="s">
+      <c r="D89" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" t="s">
         <v>27</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" t="s">
         <v>110</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="4"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13" t="s">
+      <c r="E90" t="s">
         <v>100</v>
       </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13" t="s">
+      <c r="G90" t="s">
         <v>111</v>
       </c>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="4"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
+      <c r="E91" t="s">
         <v>112</v>
       </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13" t="s">
+      <c r="G91" t="s">
         <v>113</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="4"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13" t="s">
+      <c r="E92" t="s">
         <v>114</v>
       </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13" t="s">
+      <c r="H92" t="s">
         <v>115</v>
       </c>
-      <c r="I92" s="13"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="4"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13" t="s">
+      <c r="E93" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13" t="s">
+      <c r="I93" t="s">
         <v>116</v>
       </c>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="4"/>
-      <c r="C94" s="13" t="s">
+      <c r="C94" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="4"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13" t="s">
+      <c r="D95" t="s">
         <v>117</v>
       </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="4"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13" t="s">
+      <c r="D96" t="s">
         <v>91</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="4"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13" t="s">
+      <c r="E97" t="s">
         <v>118</v>
       </c>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="4"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
+      <c r="E98" t="s">
         <v>35</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="4"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13" t="s">
+      <c r="E99" t="s">
         <v>94</v>
       </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="4"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13" t="s">
+      <c r="D100" t="s">
         <v>34</v>
       </c>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="4"/>
-      <c r="C101" s="13" t="s">
+      <c r="C101" t="s">
         <v>34</v>
       </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="4"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="4"/>
-      <c r="C103" s="13" t="s">
+      <c r="C103" t="s">
         <v>119</v>
       </c>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="4"/>
-      <c r="C104" s="13" t="s">
+      <c r="C104" t="s">
         <v>120</v>
       </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="4"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13" t="s">
+      <c r="D105" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="4"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13" t="s">
+      <c r="D106" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="E106" t="s">
         <v>19</v>
       </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13" t="s">
+      <c r="I106" t="s">
         <v>20</v>
       </c>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="4"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13" t="s">
+      <c r="D107" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="E107" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13" t="s">
+      <c r="H107" t="s">
         <v>22</v>
       </c>
-      <c r="I107" s="13"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="4"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13" t="s">
+      <c r="D108" t="s">
         <v>18</v>
       </c>
-      <c r="E108" s="13" t="s">
+      <c r="E108" t="s">
         <v>23</v>
       </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13" t="s">
+      <c r="H108" t="s">
         <v>24</v>
       </c>
-      <c r="I108" s="13"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="4"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13" t="s">
+      <c r="D109" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="E109" t="s">
         <v>25</v>
       </c>
-      <c r="F109" s="13" t="s">
+      <c r="F109" t="s">
         <v>26</v>
       </c>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="4"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13" t="s">
+      <c r="D110" t="s">
         <v>18</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="E110" t="s">
         <v>27</v>
       </c>
-      <c r="F110" s="13" t="s">
+      <c r="F110" t="s">
         <v>28</v>
       </c>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="4"/>
-      <c r="C111" s="13" t="s">
+      <c r="C111" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="4"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="4"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13" t="s">
+      <c r="D113" t="s">
         <v>30</v>
       </c>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="4"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13" t="s">
+      <c r="D114" t="s">
         <v>31</v>
       </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="4"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13" t="s">
+      <c r="E115" t="s">
         <v>32</v>
       </c>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="4"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13" t="s">
+      <c r="F116" t="s">
         <v>33</v>
       </c>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="4"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13" t="s">
+      <c r="E117" t="s">
         <v>34</v>
       </c>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="4"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13" t="s">
+      <c r="E118" t="s">
         <v>35</v>
       </c>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="4"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13" t="s">
+      <c r="E119" t="s">
         <v>36</v>
       </c>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="4"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13" t="s">
+      <c r="D120" t="s">
         <v>34</v>
       </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="4"/>
-      <c r="C121" s="13" t="s">
+      <c r="C121" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10">
@@ -5561,353 +5258,110 @@
     </row>
     <row r="159" spans="2:12">
       <c r="B159" s="4"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="13"/>
-      <c r="I159" s="13"/>
-      <c r="J159" s="13"/>
-      <c r="K159" s="13"/>
       <c r="L159" s="5"/>
     </row>
     <row r="160" spans="2:12">
       <c r="B160" s="4"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
       <c r="L160" s="5"/>
     </row>
     <row r="161" spans="2:12">
       <c r="B161" s="4"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
-      <c r="H161" s="13"/>
-      <c r="I161" s="13"/>
-      <c r="J161" s="13"/>
-      <c r="K161" s="13"/>
       <c r="L161" s="5"/>
     </row>
     <row r="162" spans="2:12">
       <c r="B162" s="4"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13"/>
-      <c r="J162" s="13"/>
-      <c r="K162" s="13"/>
       <c r="L162" s="5"/>
     </row>
     <row r="163" spans="2:12">
       <c r="B163" s="4"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="13"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="13"/>
       <c r="L163" s="5"/>
     </row>
     <row r="164" spans="2:12">
       <c r="B164" s="4"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="13"/>
       <c r="L164" s="5"/>
     </row>
     <row r="165" spans="2:12">
       <c r="B165" s="4"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="13"/>
-      <c r="K165" s="13"/>
       <c r="L165" s="5"/>
     </row>
     <row r="166" spans="2:12">
       <c r="B166" s="4"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13"/>
-      <c r="J166" s="13"/>
-      <c r="K166" s="13"/>
       <c r="L166" s="5"/>
     </row>
     <row r="167" spans="2:12">
       <c r="B167" s="4"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
-      <c r="H167" s="13"/>
-      <c r="I167" s="13"/>
-      <c r="J167" s="13"/>
-      <c r="K167" s="13"/>
       <c r="L167" s="5"/>
     </row>
     <row r="168" spans="2:12">
       <c r="B168" s="4"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="13"/>
-      <c r="J168" s="13"/>
-      <c r="K168" s="13"/>
       <c r="L168" s="5"/>
     </row>
     <row r="169" spans="2:12">
       <c r="B169" s="4"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="13"/>
       <c r="L169" s="5"/>
     </row>
     <row r="170" spans="2:12">
       <c r="B170" s="4"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="13"/>
-      <c r="J170" s="13"/>
-      <c r="K170" s="13"/>
       <c r="L170" s="5"/>
     </row>
     <row r="171" spans="2:12">
       <c r="B171" s="4"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
       <c r="L171" s="5"/>
     </row>
     <row r="172" spans="2:12">
       <c r="B172" s="4"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
-      <c r="H172" s="13"/>
-      <c r="I172" s="13"/>
-      <c r="J172" s="13"/>
-      <c r="K172" s="13"/>
       <c r="L172" s="5"/>
     </row>
     <row r="173" spans="2:12">
       <c r="B173" s="4"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="13"/>
-      <c r="H173" s="13"/>
-      <c r="I173" s="13"/>
-      <c r="J173" s="13"/>
-      <c r="K173" s="13"/>
       <c r="L173" s="5"/>
     </row>
     <row r="174" spans="2:12">
       <c r="B174" s="4"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="13"/>
-      <c r="J174" s="13"/>
-      <c r="K174" s="13"/>
       <c r="L174" s="5"/>
     </row>
     <row r="175" spans="2:12">
       <c r="B175" s="4"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="13"/>
-      <c r="H175" s="13"/>
-      <c r="I175" s="13"/>
-      <c r="J175" s="13"/>
-      <c r="K175" s="13"/>
       <c r="L175" s="5"/>
     </row>
     <row r="176" spans="2:12">
       <c r="B176" s="4"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="13"/>
-      <c r="H176" s="13"/>
-      <c r="I176" s="13"/>
-      <c r="J176" s="13"/>
-      <c r="K176" s="13"/>
       <c r="L176" s="5"/>
     </row>
     <row r="177" spans="2:12">
       <c r="B177" s="4"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="13"/>
-      <c r="H177" s="13"/>
-      <c r="I177" s="13"/>
-      <c r="J177" s="13"/>
-      <c r="K177" s="13"/>
       <c r="L177" s="5"/>
     </row>
     <row r="178" spans="2:12">
       <c r="B178" s="4"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
-      <c r="H178" s="13"/>
-      <c r="I178" s="13"/>
-      <c r="J178" s="13"/>
-      <c r="K178" s="13"/>
       <c r="L178" s="5"/>
     </row>
     <row r="179" spans="2:12">
       <c r="B179" s="4"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
-      <c r="H179" s="13"/>
-      <c r="I179" s="13"/>
-      <c r="J179" s="13"/>
-      <c r="K179" s="13"/>
       <c r="L179" s="5"/>
     </row>
     <row r="180" spans="2:12">
       <c r="B180" s="4"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="13"/>
-      <c r="H180" s="13"/>
-      <c r="I180" s="13"/>
-      <c r="J180" s="13"/>
-      <c r="K180" s="13"/>
       <c r="L180" s="5"/>
     </row>
     <row r="181" spans="2:12">
       <c r="B181" s="4"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="13"/>
-      <c r="H181" s="13"/>
-      <c r="I181" s="13"/>
-      <c r="J181" s="13"/>
-      <c r="K181" s="13"/>
       <c r="L181" s="5"/>
     </row>
     <row r="182" spans="2:12">
       <c r="B182" s="4"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="13"/>
-      <c r="H182" s="13"/>
-      <c r="I182" s="13"/>
-      <c r="J182" s="13"/>
-      <c r="K182" s="13"/>
       <c r="L182" s="5"/>
     </row>
     <row r="183" spans="2:12">
       <c r="B183" s="4"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="13"/>
-      <c r="I183" s="13"/>
-      <c r="J183" s="13"/>
-      <c r="K183" s="13"/>
       <c r="L183" s="5"/>
     </row>
     <row r="184" spans="2:12">
       <c r="B184" s="4"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
-      <c r="H184" s="13"/>
-      <c r="I184" s="13"/>
-      <c r="J184" s="13"/>
-      <c r="K184" s="13"/>
       <c r="L184" s="5"/>
     </row>
     <row r="185" spans="2:12">
       <c r="B185" s="4"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
-      <c r="H185" s="13"/>
-      <c r="I185" s="13"/>
-      <c r="J185" s="13"/>
-      <c r="K185" s="13"/>
       <c r="L185" s="5"/>
     </row>
     <row r="186" spans="2:12">
@@ -5928,4 +5382,2411 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B964EAE-C7FA-40CA-AD1B-E668F465A1B6}">
+  <dimension ref="B3:N244"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="S207" sqref="S207"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="B131" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="B132" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="4"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="B140" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="B144" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="B157" s="7"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="9"/>
+    </row>
+    <row r="204" spans="2:14">
+      <c r="B204" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="3"/>
+    </row>
+    <row r="205" spans="2:14">
+      <c r="B205" s="4"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13"/>
+      <c r="K205" s="13"/>
+      <c r="L205" s="13"/>
+      <c r="M205" s="13"/>
+      <c r="N205" s="5"/>
+    </row>
+    <row r="206" spans="2:14">
+      <c r="B206" s="4"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="13"/>
+      <c r="L206" s="13"/>
+      <c r="M206" s="13"/>
+      <c r="N206" s="5"/>
+    </row>
+    <row r="207" spans="2:14">
+      <c r="B207" s="4"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
+      <c r="K207" s="13"/>
+      <c r="L207" s="13"/>
+      <c r="M207" s="13"/>
+      <c r="N207" s="5"/>
+    </row>
+    <row r="208" spans="2:14">
+      <c r="B208" s="4"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
+      <c r="K208" s="13"/>
+      <c r="L208" s="13"/>
+      <c r="M208" s="13"/>
+      <c r="N208" s="5"/>
+    </row>
+    <row r="209" spans="2:14">
+      <c r="B209" s="4"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="13"/>
+      <c r="K209" s="13"/>
+      <c r="L209" s="13"/>
+      <c r="M209" s="13"/>
+      <c r="N209" s="5"/>
+    </row>
+    <row r="210" spans="2:14">
+      <c r="B210" s="4"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="13"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="13"/>
+      <c r="K210" s="13"/>
+      <c r="L210" s="13"/>
+      <c r="M210" s="13"/>
+      <c r="N210" s="5"/>
+    </row>
+    <row r="211" spans="2:14">
+      <c r="B211" s="4"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="13"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+      <c r="K211" s="13"/>
+      <c r="L211" s="13"/>
+      <c r="M211" s="13"/>
+      <c r="N211" s="5"/>
+    </row>
+    <row r="212" spans="2:14">
+      <c r="B212" s="4"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="13"/>
+      <c r="K212" s="13"/>
+      <c r="L212" s="13"/>
+      <c r="M212" s="13"/>
+      <c r="N212" s="5"/>
+    </row>
+    <row r="213" spans="2:14">
+      <c r="B213" s="4"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+      <c r="G213" s="13"/>
+      <c r="H213" s="13"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="13"/>
+      <c r="K213" s="13"/>
+      <c r="L213" s="13"/>
+      <c r="M213" s="13"/>
+      <c r="N213" s="5"/>
+    </row>
+    <row r="214" spans="2:14">
+      <c r="B214" s="4"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="13"/>
+      <c r="H214" s="13"/>
+      <c r="I214" s="13"/>
+      <c r="J214" s="13"/>
+      <c r="K214" s="13"/>
+      <c r="L214" s="13"/>
+      <c r="M214" s="13"/>
+      <c r="N214" s="5"/>
+    </row>
+    <row r="215" spans="2:14">
+      <c r="B215" s="4"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="13"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
+      <c r="K215" s="13"/>
+      <c r="L215" s="13"/>
+      <c r="M215" s="13"/>
+      <c r="N215" s="5"/>
+    </row>
+    <row r="216" spans="2:14">
+      <c r="B216" s="4"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="13"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="13"/>
+      <c r="K216" s="13"/>
+      <c r="L216" s="13"/>
+      <c r="M216" s="13"/>
+      <c r="N216" s="5"/>
+    </row>
+    <row r="217" spans="2:14">
+      <c r="B217" s="4"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
+      <c r="G217" s="13"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
+      <c r="K217" s="13"/>
+      <c r="L217" s="13"/>
+      <c r="M217" s="13"/>
+      <c r="N217" s="5"/>
+    </row>
+    <row r="218" spans="2:14">
+      <c r="B218" s="4"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
+      <c r="K218" s="13"/>
+      <c r="L218" s="13"/>
+      <c r="M218" s="13"/>
+      <c r="N218" s="5"/>
+    </row>
+    <row r="219" spans="2:14">
+      <c r="B219" s="4"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
+      <c r="G219" s="13"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="13"/>
+      <c r="J219" s="13"/>
+      <c r="K219" s="13"/>
+      <c r="L219" s="13"/>
+      <c r="M219" s="13"/>
+      <c r="N219" s="5"/>
+    </row>
+    <row r="220" spans="2:14">
+      <c r="B220" s="4"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
+      <c r="G220" s="13"/>
+      <c r="H220" s="13"/>
+      <c r="I220" s="13"/>
+      <c r="J220" s="13"/>
+      <c r="K220" s="13"/>
+      <c r="L220" s="13"/>
+      <c r="M220" s="13"/>
+      <c r="N220" s="5"/>
+    </row>
+    <row r="221" spans="2:14">
+      <c r="B221" s="4"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
+      <c r="G221" s="13"/>
+      <c r="H221" s="13"/>
+      <c r="I221" s="13"/>
+      <c r="J221" s="13"/>
+      <c r="K221" s="13"/>
+      <c r="L221" s="13"/>
+      <c r="M221" s="13"/>
+      <c r="N221" s="5"/>
+    </row>
+    <row r="222" spans="2:14">
+      <c r="B222" s="4"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+      <c r="J222" s="13"/>
+      <c r="K222" s="13"/>
+      <c r="L222" s="13"/>
+      <c r="M222" s="13"/>
+      <c r="N222" s="5"/>
+    </row>
+    <row r="223" spans="2:14">
+      <c r="B223" s="4"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+      <c r="G223" s="13"/>
+      <c r="H223" s="13"/>
+      <c r="I223" s="13"/>
+      <c r="J223" s="13"/>
+      <c r="K223" s="13"/>
+      <c r="L223" s="13"/>
+      <c r="M223" s="13"/>
+      <c r="N223" s="5"/>
+    </row>
+    <row r="224" spans="2:14">
+      <c r="B224" s="4"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="13"/>
+      <c r="I224" s="13"/>
+      <c r="J224" s="13"/>
+      <c r="K224" s="13"/>
+      <c r="L224" s="13"/>
+      <c r="M224" s="13"/>
+      <c r="N224" s="5"/>
+    </row>
+    <row r="225" spans="2:14">
+      <c r="B225" s="4"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="13"/>
+      <c r="J225" s="13"/>
+      <c r="K225" s="13"/>
+      <c r="L225" s="13"/>
+      <c r="M225" s="13"/>
+      <c r="N225" s="5"/>
+    </row>
+    <row r="226" spans="2:14">
+      <c r="B226" s="4"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="13"/>
+      <c r="J226" s="13"/>
+      <c r="K226" s="13"/>
+      <c r="L226" s="13"/>
+      <c r="M226" s="13"/>
+      <c r="N226" s="5"/>
+    </row>
+    <row r="227" spans="2:14">
+      <c r="B227" s="4"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="13"/>
+      <c r="H227" s="13"/>
+      <c r="I227" s="13"/>
+      <c r="J227" s="13"/>
+      <c r="K227" s="13"/>
+      <c r="L227" s="13"/>
+      <c r="M227" s="13"/>
+      <c r="N227" s="5"/>
+    </row>
+    <row r="228" spans="2:14">
+      <c r="B228" s="4"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="13"/>
+      <c r="H228" s="13"/>
+      <c r="I228" s="13"/>
+      <c r="J228" s="13"/>
+      <c r="K228" s="13"/>
+      <c r="L228" s="13"/>
+      <c r="M228" s="13"/>
+      <c r="N228" s="5"/>
+    </row>
+    <row r="229" spans="2:14">
+      <c r="B229" s="4"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="13"/>
+      <c r="H229" s="13"/>
+      <c r="I229" s="13"/>
+      <c r="J229" s="13"/>
+      <c r="K229" s="13"/>
+      <c r="L229" s="13"/>
+      <c r="M229" s="13"/>
+      <c r="N229" s="5"/>
+    </row>
+    <row r="230" spans="2:14">
+      <c r="B230" s="4"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="13"/>
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13"/>
+      <c r="K230" s="13"/>
+      <c r="L230" s="13"/>
+      <c r="M230" s="13"/>
+      <c r="N230" s="5"/>
+    </row>
+    <row r="231" spans="2:14">
+      <c r="B231" s="4"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="13"/>
+      <c r="H231" s="13"/>
+      <c r="I231" s="13"/>
+      <c r="J231" s="13"/>
+      <c r="K231" s="13"/>
+      <c r="L231" s="13"/>
+      <c r="M231" s="13"/>
+      <c r="N231" s="5"/>
+    </row>
+    <row r="232" spans="2:14">
+      <c r="B232" s="4"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="13"/>
+      <c r="H232" s="13"/>
+      <c r="I232" s="13"/>
+      <c r="J232" s="13"/>
+      <c r="K232" s="13"/>
+      <c r="L232" s="13"/>
+      <c r="M232" s="13"/>
+      <c r="N232" s="5"/>
+    </row>
+    <row r="233" spans="2:14">
+      <c r="B233" s="4"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
+      <c r="G233" s="13"/>
+      <c r="H233" s="13"/>
+      <c r="I233" s="13"/>
+      <c r="J233" s="13"/>
+      <c r="K233" s="13"/>
+      <c r="L233" s="13"/>
+      <c r="M233" s="13"/>
+      <c r="N233" s="5"/>
+    </row>
+    <row r="234" spans="2:14">
+      <c r="B234" s="4"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
+      <c r="G234" s="13"/>
+      <c r="H234" s="13"/>
+      <c r="I234" s="13"/>
+      <c r="J234" s="13"/>
+      <c r="K234" s="13"/>
+      <c r="L234" s="13"/>
+      <c r="M234" s="13"/>
+      <c r="N234" s="5"/>
+    </row>
+    <row r="235" spans="2:14">
+      <c r="B235" s="4"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13"/>
+      <c r="G235" s="13"/>
+      <c r="H235" s="13"/>
+      <c r="I235" s="13"/>
+      <c r="J235" s="13"/>
+      <c r="K235" s="13"/>
+      <c r="L235" s="13"/>
+      <c r="M235" s="13"/>
+      <c r="N235" s="5"/>
+    </row>
+    <row r="236" spans="2:14">
+      <c r="B236" s="4"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="13"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="13"/>
+      <c r="K236" s="13"/>
+      <c r="L236" s="13"/>
+      <c r="M236" s="13"/>
+      <c r="N236" s="5"/>
+    </row>
+    <row r="237" spans="2:14">
+      <c r="B237" s="4"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="13"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="13"/>
+      <c r="J237" s="13"/>
+      <c r="K237" s="13"/>
+      <c r="L237" s="13"/>
+      <c r="M237" s="13"/>
+      <c r="N237" s="5"/>
+    </row>
+    <row r="238" spans="2:14">
+      <c r="B238" s="4"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+      <c r="G238" s="13"/>
+      <c r="H238" s="13"/>
+      <c r="I238" s="13"/>
+      <c r="J238" s="13"/>
+      <c r="K238" s="13"/>
+      <c r="L238" s="13"/>
+      <c r="M238" s="13"/>
+      <c r="N238" s="5"/>
+    </row>
+    <row r="239" spans="2:14">
+      <c r="B239" s="4"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13"/>
+      <c r="G239" s="13"/>
+      <c r="H239" s="13"/>
+      <c r="I239" s="13"/>
+      <c r="J239" s="13"/>
+      <c r="K239" s="13"/>
+      <c r="L239" s="13"/>
+      <c r="M239" s="13"/>
+      <c r="N239" s="5"/>
+    </row>
+    <row r="240" spans="2:14">
+      <c r="B240" s="4"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
+      <c r="G240" s="13"/>
+      <c r="H240" s="13"/>
+      <c r="I240" s="13"/>
+      <c r="J240" s="13"/>
+      <c r="K240" s="13"/>
+      <c r="L240" s="13"/>
+      <c r="M240" s="13"/>
+      <c r="N240" s="5"/>
+    </row>
+    <row r="241" spans="2:14">
+      <c r="B241" s="4"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+      <c r="G241" s="13"/>
+      <c r="H241" s="13"/>
+      <c r="I241" s="13"/>
+      <c r="J241" s="13"/>
+      <c r="K241" s="13"/>
+      <c r="L241" s="13"/>
+      <c r="M241" s="13"/>
+      <c r="N241" s="5"/>
+    </row>
+    <row r="242" spans="2:14">
+      <c r="B242" s="4"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
+      <c r="G242" s="13"/>
+      <c r="H242" s="13"/>
+      <c r="I242" s="13"/>
+      <c r="J242" s="13"/>
+      <c r="K242" s="13"/>
+      <c r="L242" s="13"/>
+      <c r="M242" s="13"/>
+      <c r="N242" s="5"/>
+    </row>
+    <row r="243" spans="2:14">
+      <c r="B243" s="4"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="13"/>
+      <c r="G243" s="13"/>
+      <c r="H243" s="13"/>
+      <c r="I243" s="13"/>
+      <c r="J243" s="13"/>
+      <c r="K243" s="13"/>
+      <c r="L243" s="13"/>
+      <c r="M243" s="13"/>
+      <c r="N243" s="5"/>
+    </row>
+    <row r="244" spans="2:14">
+      <c r="B244" s="7"/>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="8"/>
+      <c r="H244" s="8"/>
+      <c r="I244" s="8"/>
+      <c r="J244" s="8"/>
+      <c r="K244" s="8"/>
+      <c r="L244" s="8"/>
+      <c r="M244" s="8"/>
+      <c r="N244" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
+++ b/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA9B6ED-9D9B-4691-966C-FF55B8D3EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337176B2-3CDD-4A6E-BEF5-3DAFC24645E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="1140" windowWidth="25770" windowHeight="13920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="1140" windowWidth="25770" windowHeight="13920" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shape 01" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Shape 04" sheetId="4" r:id="rId4"/>
     <sheet name="Shape 05" sheetId="5" r:id="rId5"/>
     <sheet name="Shape 06" sheetId="6" r:id="rId6"/>
+    <sheet name="Shape 07" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="182">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -575,6 +576,45 @@
   </si>
   <si>
     <t>    public static void main003(String[] args) {</t>
+  </si>
+  <si>
+    <t>    // 007 Shape 7</t>
+  </si>
+  <si>
+    <t>            *  *  *  *  *   11 12 13 14 15</t>
+  </si>
+  <si>
+    <t>            *           *   21 22 23 24 25</t>
+  </si>
+  <si>
+    <t>            *           *</t>
+  </si>
+  <si>
+    <t>        final int LENGTH    = 7;</t>
+  </si>
+  <si>
+    <t>        while(number &lt;= LENGTH){</t>
+  </si>
+  <si>
+    <t>            for(int i = 1; i &lt;= LENGTH ; i++) {</t>
+  </si>
+  <si>
+    <t>                if(i &gt;= 2 &amp;&amp; i &lt;= LENGTH-1 &amp;&amp; number &gt;=2 &amp;&amp; number &lt;= LENGTH - 1) {</t>
+  </si>
+  <si>
+    <t>                    System.out.print("  ");</t>
+  </si>
+  <si>
+    <t>                }else{</t>
+  </si>
+  <si>
+    <t>                    System.out.print("* ");</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <t>    public static void main006(String[] args) {</t>
   </si>
 </sst>
 </file>
@@ -1316,6 +1356,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589509</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>75259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E3F769-F517-B4ED-F48A-78B675517308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="42386250"/>
+          <a:ext cx="8323809" cy="7523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5388,8 +5477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B964EAE-C7FA-40CA-AD1B-E668F465A1B6}">
   <dimension ref="B3:N244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="S207" sqref="S207"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5507,1654 +5596,946 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
       <c r="I74" s="5"/>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
       <c r="I83" s="5"/>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
       <c r="I84" s="5"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
       <c r="I85" s="5"/>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
       <c r="I86" s="5"/>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
       <c r="I91" s="5"/>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
       <c r="I92" s="5"/>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
       <c r="I93" s="5"/>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
       <c r="I94" s="5"/>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
       <c r="I95" s="5"/>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
       <c r="I96" s="5"/>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
       <c r="I97" s="5"/>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
       <c r="I102" s="5"/>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
       <c r="I103" s="5"/>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
       <c r="I106" s="5"/>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
       <c r="I112" s="5"/>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
       <c r="I113" s="5"/>
     </row>
     <row r="114" spans="2:9">
       <c r="B114" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
       <c r="I114" s="5"/>
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
       <c r="I115" s="5"/>
     </row>
     <row r="116" spans="2:9">
       <c r="B116" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
       <c r="I116" s="5"/>
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
       <c r="I117" s="5"/>
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="2:9">
       <c r="B120" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
       <c r="I122" s="5"/>
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
       <c r="I123" s="5"/>
     </row>
     <row r="124" spans="2:9">
       <c r="B124" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="2:9">
       <c r="B126" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
       <c r="I126" s="5"/>
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="2:9">
       <c r="B128" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
       <c r="I128" s="5"/>
     </row>
     <row r="129" spans="2:9">
       <c r="B129" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="2:9">
       <c r="B130" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
       <c r="I132" s="5"/>
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
       <c r="I133" s="5"/>
     </row>
     <row r="134" spans="2:9">
       <c r="B134" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
       <c r="I134" s="5"/>
     </row>
     <row r="135" spans="2:9">
       <c r="B135" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
       <c r="I135" s="5"/>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="4"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
       <c r="I136" s="5"/>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
       <c r="I137" s="5"/>
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="2:9">
       <c r="B139" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="2:9">
       <c r="B140" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
       <c r="I141" s="5"/>
     </row>
     <row r="142" spans="2:9">
       <c r="B142" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
       <c r="I142" s="5"/>
     </row>
     <row r="143" spans="2:9">
       <c r="B143" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
       <c r="I143" s="5"/>
     </row>
     <row r="144" spans="2:9">
       <c r="B144" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
       <c r="I144" s="5"/>
     </row>
     <row r="145" spans="2:9">
       <c r="B145" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
       <c r="I145" s="5"/>
     </row>
     <row r="146" spans="2:9">
       <c r="B146" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
       <c r="I146" s="5"/>
     </row>
     <row r="147" spans="2:9">
       <c r="B147" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="2:9">
       <c r="B148" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="2:9">
       <c r="B149" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13"/>
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="2:9">
       <c r="B150" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="13"/>
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="2:9">
       <c r="B151" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="2:9">
       <c r="B152" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13"/>
       <c r="I152" s="5"/>
     </row>
     <row r="153" spans="2:9">
       <c r="B153" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
       <c r="I153" s="5"/>
     </row>
     <row r="154" spans="2:9">
       <c r="B154" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
       <c r="I154" s="5"/>
     </row>
     <row r="155" spans="2:9">
       <c r="B155" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13"/>
       <c r="I155" s="5"/>
     </row>
     <row r="156" spans="2:9">
       <c r="B156" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13"/>
       <c r="I156" s="5"/>
     </row>
     <row r="157" spans="2:9">
@@ -7186,587 +6567,158 @@
     </row>
     <row r="205" spans="2:14">
       <c r="B205" s="4"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="13"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13"/>
-      <c r="L205" s="13"/>
-      <c r="M205" s="13"/>
       <c r="N205" s="5"/>
     </row>
     <row r="206" spans="2:14">
       <c r="B206" s="4"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
-      <c r="G206" s="13"/>
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="13"/>
-      <c r="L206" s="13"/>
-      <c r="M206" s="13"/>
       <c r="N206" s="5"/>
     </row>
     <row r="207" spans="2:14">
       <c r="B207" s="4"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="13"/>
-      <c r="H207" s="13"/>
-      <c r="I207" s="13"/>
-      <c r="J207" s="13"/>
-      <c r="K207" s="13"/>
-      <c r="L207" s="13"/>
-      <c r="M207" s="13"/>
       <c r="N207" s="5"/>
     </row>
     <row r="208" spans="2:14">
       <c r="B208" s="4"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="13"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="13"/>
-      <c r="K208" s="13"/>
-      <c r="L208" s="13"/>
-      <c r="M208" s="13"/>
       <c r="N208" s="5"/>
     </row>
     <row r="209" spans="2:14">
       <c r="B209" s="4"/>
-      <c r="C209" s="13"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
-      <c r="G209" s="13"/>
-      <c r="H209" s="13"/>
-      <c r="I209" s="13"/>
-      <c r="J209" s="13"/>
-      <c r="K209" s="13"/>
-      <c r="L209" s="13"/>
-      <c r="M209" s="13"/>
       <c r="N209" s="5"/>
     </row>
     <row r="210" spans="2:14">
       <c r="B210" s="4"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
-      <c r="J210" s="13"/>
-      <c r="K210" s="13"/>
-      <c r="L210" s="13"/>
-      <c r="M210" s="13"/>
       <c r="N210" s="5"/>
     </row>
     <row r="211" spans="2:14">
       <c r="B211" s="4"/>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="13"/>
-      <c r="H211" s="13"/>
-      <c r="I211" s="13"/>
-      <c r="J211" s="13"/>
-      <c r="K211" s="13"/>
-      <c r="L211" s="13"/>
-      <c r="M211" s="13"/>
       <c r="N211" s="5"/>
     </row>
     <row r="212" spans="2:14">
       <c r="B212" s="4"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="13"/>
-      <c r="G212" s="13"/>
-      <c r="H212" s="13"/>
-      <c r="I212" s="13"/>
-      <c r="J212" s="13"/>
-      <c r="K212" s="13"/>
-      <c r="L212" s="13"/>
-      <c r="M212" s="13"/>
       <c r="N212" s="5"/>
     </row>
     <row r="213" spans="2:14">
       <c r="B213" s="4"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="13"/>
-      <c r="G213" s="13"/>
-      <c r="H213" s="13"/>
-      <c r="I213" s="13"/>
-      <c r="J213" s="13"/>
-      <c r="K213" s="13"/>
-      <c r="L213" s="13"/>
-      <c r="M213" s="13"/>
       <c r="N213" s="5"/>
     </row>
     <row r="214" spans="2:14">
       <c r="B214" s="4"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
-      <c r="F214" s="13"/>
-      <c r="G214" s="13"/>
-      <c r="H214" s="13"/>
-      <c r="I214" s="13"/>
-      <c r="J214" s="13"/>
-      <c r="K214" s="13"/>
-      <c r="L214" s="13"/>
-      <c r="M214" s="13"/>
       <c r="N214" s="5"/>
     </row>
     <row r="215" spans="2:14">
       <c r="B215" s="4"/>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13"/>
-      <c r="G215" s="13"/>
-      <c r="H215" s="13"/>
-      <c r="I215" s="13"/>
-      <c r="J215" s="13"/>
-      <c r="K215" s="13"/>
-      <c r="L215" s="13"/>
-      <c r="M215" s="13"/>
       <c r="N215" s="5"/>
     </row>
     <row r="216" spans="2:14">
       <c r="B216" s="4"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="13"/>
-      <c r="H216" s="13"/>
-      <c r="I216" s="13"/>
-      <c r="J216" s="13"/>
-      <c r="K216" s="13"/>
-      <c r="L216" s="13"/>
-      <c r="M216" s="13"/>
       <c r="N216" s="5"/>
     </row>
     <row r="217" spans="2:14">
       <c r="B217" s="4"/>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="13"/>
-      <c r="G217" s="13"/>
-      <c r="H217" s="13"/>
-      <c r="I217" s="13"/>
-      <c r="J217" s="13"/>
-      <c r="K217" s="13"/>
-      <c r="L217" s="13"/>
-      <c r="M217" s="13"/>
       <c r="N217" s="5"/>
     </row>
     <row r="218" spans="2:14">
       <c r="B218" s="4"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
-      <c r="H218" s="13"/>
-      <c r="I218" s="13"/>
-      <c r="J218" s="13"/>
-      <c r="K218" s="13"/>
-      <c r="L218" s="13"/>
-      <c r="M218" s="13"/>
       <c r="N218" s="5"/>
     </row>
     <row r="219" spans="2:14">
       <c r="B219" s="4"/>
-      <c r="C219" s="13"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
-      <c r="F219" s="13"/>
-      <c r="G219" s="13"/>
-      <c r="H219" s="13"/>
-      <c r="I219" s="13"/>
-      <c r="J219" s="13"/>
-      <c r="K219" s="13"/>
-      <c r="L219" s="13"/>
-      <c r="M219" s="13"/>
       <c r="N219" s="5"/>
     </row>
     <row r="220" spans="2:14">
       <c r="B220" s="4"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
-      <c r="F220" s="13"/>
-      <c r="G220" s="13"/>
-      <c r="H220" s="13"/>
-      <c r="I220" s="13"/>
-      <c r="J220" s="13"/>
-      <c r="K220" s="13"/>
-      <c r="L220" s="13"/>
-      <c r="M220" s="13"/>
       <c r="N220" s="5"/>
     </row>
     <row r="221" spans="2:14">
       <c r="B221" s="4"/>
-      <c r="C221" s="13"/>
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
-      <c r="F221" s="13"/>
-      <c r="G221" s="13"/>
-      <c r="H221" s="13"/>
-      <c r="I221" s="13"/>
-      <c r="J221" s="13"/>
-      <c r="K221" s="13"/>
-      <c r="L221" s="13"/>
-      <c r="M221" s="13"/>
       <c r="N221" s="5"/>
     </row>
     <row r="222" spans="2:14">
       <c r="B222" s="4"/>
-      <c r="C222" s="13"/>
-      <c r="D222" s="13"/>
-      <c r="E222" s="13"/>
-      <c r="F222" s="13"/>
-      <c r="G222" s="13"/>
-      <c r="H222" s="13"/>
-      <c r="I222" s="13"/>
-      <c r="J222" s="13"/>
-      <c r="K222" s="13"/>
-      <c r="L222" s="13"/>
-      <c r="M222" s="13"/>
       <c r="N222" s="5"/>
     </row>
     <row r="223" spans="2:14">
       <c r="B223" s="4"/>
-      <c r="C223" s="13"/>
-      <c r="D223" s="13"/>
-      <c r="E223" s="13"/>
-      <c r="F223" s="13"/>
-      <c r="G223" s="13"/>
-      <c r="H223" s="13"/>
-      <c r="I223" s="13"/>
-      <c r="J223" s="13"/>
-      <c r="K223" s="13"/>
-      <c r="L223" s="13"/>
-      <c r="M223" s="13"/>
       <c r="N223" s="5"/>
     </row>
     <row r="224" spans="2:14">
       <c r="B224" s="4"/>
-      <c r="C224" s="13"/>
-      <c r="D224" s="13"/>
-      <c r="E224" s="13"/>
-      <c r="F224" s="13"/>
-      <c r="G224" s="13"/>
-      <c r="H224" s="13"/>
-      <c r="I224" s="13"/>
-      <c r="J224" s="13"/>
-      <c r="K224" s="13"/>
-      <c r="L224" s="13"/>
-      <c r="M224" s="13"/>
       <c r="N224" s="5"/>
     </row>
     <row r="225" spans="2:14">
       <c r="B225" s="4"/>
-      <c r="C225" s="13"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
-      <c r="F225" s="13"/>
-      <c r="G225" s="13"/>
-      <c r="H225" s="13"/>
-      <c r="I225" s="13"/>
-      <c r="J225" s="13"/>
-      <c r="K225" s="13"/>
-      <c r="L225" s="13"/>
-      <c r="M225" s="13"/>
       <c r="N225" s="5"/>
     </row>
     <row r="226" spans="2:14">
       <c r="B226" s="4"/>
-      <c r="C226" s="13"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="13"/>
-      <c r="F226" s="13"/>
-      <c r="G226" s="13"/>
-      <c r="H226" s="13"/>
-      <c r="I226" s="13"/>
-      <c r="J226" s="13"/>
-      <c r="K226" s="13"/>
-      <c r="L226" s="13"/>
-      <c r="M226" s="13"/>
       <c r="N226" s="5"/>
     </row>
     <row r="227" spans="2:14">
       <c r="B227" s="4"/>
-      <c r="C227" s="13"/>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
-      <c r="F227" s="13"/>
-      <c r="G227" s="13"/>
-      <c r="H227" s="13"/>
-      <c r="I227" s="13"/>
-      <c r="J227" s="13"/>
-      <c r="K227" s="13"/>
-      <c r="L227" s="13"/>
-      <c r="M227" s="13"/>
       <c r="N227" s="5"/>
     </row>
     <row r="228" spans="2:14">
       <c r="B228" s="4"/>
-      <c r="C228" s="13"/>
-      <c r="D228" s="13"/>
-      <c r="E228" s="13"/>
-      <c r="F228" s="13"/>
-      <c r="G228" s="13"/>
-      <c r="H228" s="13"/>
-      <c r="I228" s="13"/>
-      <c r="J228" s="13"/>
-      <c r="K228" s="13"/>
-      <c r="L228" s="13"/>
-      <c r="M228" s="13"/>
       <c r="N228" s="5"/>
     </row>
     <row r="229" spans="2:14">
       <c r="B229" s="4"/>
-      <c r="C229" s="13"/>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="13"/>
-      <c r="G229" s="13"/>
-      <c r="H229" s="13"/>
-      <c r="I229" s="13"/>
-      <c r="J229" s="13"/>
-      <c r="K229" s="13"/>
-      <c r="L229" s="13"/>
-      <c r="M229" s="13"/>
       <c r="N229" s="5"/>
     </row>
     <row r="230" spans="2:14">
       <c r="B230" s="4"/>
-      <c r="C230" s="13"/>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13"/>
-      <c r="G230" s="13"/>
-      <c r="H230" s="13"/>
-      <c r="I230" s="13"/>
-      <c r="J230" s="13"/>
-      <c r="K230" s="13"/>
-      <c r="L230" s="13"/>
-      <c r="M230" s="13"/>
       <c r="N230" s="5"/>
     </row>
     <row r="231" spans="2:14">
       <c r="B231" s="4"/>
-      <c r="C231" s="13"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
-      <c r="G231" s="13"/>
-      <c r="H231" s="13"/>
-      <c r="I231" s="13"/>
-      <c r="J231" s="13"/>
-      <c r="K231" s="13"/>
-      <c r="L231" s="13"/>
-      <c r="M231" s="13"/>
       <c r="N231" s="5"/>
     </row>
     <row r="232" spans="2:14">
       <c r="B232" s="4"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="13"/>
-      <c r="F232" s="13"/>
-      <c r="G232" s="13"/>
-      <c r="H232" s="13"/>
-      <c r="I232" s="13"/>
-      <c r="J232" s="13"/>
-      <c r="K232" s="13"/>
-      <c r="L232" s="13"/>
-      <c r="M232" s="13"/>
       <c r="N232" s="5"/>
     </row>
     <row r="233" spans="2:14">
       <c r="B233" s="4"/>
-      <c r="C233" s="13"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="13"/>
-      <c r="G233" s="13"/>
-      <c r="H233" s="13"/>
-      <c r="I233" s="13"/>
-      <c r="J233" s="13"/>
-      <c r="K233" s="13"/>
-      <c r="L233" s="13"/>
-      <c r="M233" s="13"/>
       <c r="N233" s="5"/>
     </row>
     <row r="234" spans="2:14">
       <c r="B234" s="4"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
-      <c r="F234" s="13"/>
-      <c r="G234" s="13"/>
-      <c r="H234" s="13"/>
-      <c r="I234" s="13"/>
-      <c r="J234" s="13"/>
-      <c r="K234" s="13"/>
-      <c r="L234" s="13"/>
-      <c r="M234" s="13"/>
       <c r="N234" s="5"/>
     </row>
     <row r="235" spans="2:14">
       <c r="B235" s="4"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
-      <c r="F235" s="13"/>
-      <c r="G235" s="13"/>
-      <c r="H235" s="13"/>
-      <c r="I235" s="13"/>
-      <c r="J235" s="13"/>
-      <c r="K235" s="13"/>
-      <c r="L235" s="13"/>
-      <c r="M235" s="13"/>
       <c r="N235" s="5"/>
     </row>
     <row r="236" spans="2:14">
       <c r="B236" s="4"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13"/>
-      <c r="F236" s="13"/>
-      <c r="G236" s="13"/>
-      <c r="H236" s="13"/>
-      <c r="I236" s="13"/>
-      <c r="J236" s="13"/>
-      <c r="K236" s="13"/>
-      <c r="L236" s="13"/>
-      <c r="M236" s="13"/>
       <c r="N236" s="5"/>
     </row>
     <row r="237" spans="2:14">
       <c r="B237" s="4"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13"/>
-      <c r="F237" s="13"/>
-      <c r="G237" s="13"/>
-      <c r="H237" s="13"/>
-      <c r="I237" s="13"/>
-      <c r="J237" s="13"/>
-      <c r="K237" s="13"/>
-      <c r="L237" s="13"/>
-      <c r="M237" s="13"/>
       <c r="N237" s="5"/>
     </row>
     <row r="238" spans="2:14">
       <c r="B238" s="4"/>
-      <c r="C238" s="13"/>
-      <c r="D238" s="13"/>
-      <c r="E238" s="13"/>
-      <c r="F238" s="13"/>
-      <c r="G238" s="13"/>
-      <c r="H238" s="13"/>
-      <c r="I238" s="13"/>
-      <c r="J238" s="13"/>
-      <c r="K238" s="13"/>
-      <c r="L238" s="13"/>
-      <c r="M238" s="13"/>
       <c r="N238" s="5"/>
     </row>
     <row r="239" spans="2:14">
       <c r="B239" s="4"/>
-      <c r="C239" s="13"/>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13"/>
-      <c r="F239" s="13"/>
-      <c r="G239" s="13"/>
-      <c r="H239" s="13"/>
-      <c r="I239" s="13"/>
-      <c r="J239" s="13"/>
-      <c r="K239" s="13"/>
-      <c r="L239" s="13"/>
-      <c r="M239" s="13"/>
       <c r="N239" s="5"/>
     </row>
     <row r="240" spans="2:14">
       <c r="B240" s="4"/>
-      <c r="C240" s="13"/>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
-      <c r="F240" s="13"/>
-      <c r="G240" s="13"/>
-      <c r="H240" s="13"/>
-      <c r="I240" s="13"/>
-      <c r="J240" s="13"/>
-      <c r="K240" s="13"/>
-      <c r="L240" s="13"/>
-      <c r="M240" s="13"/>
       <c r="N240" s="5"/>
     </row>
     <row r="241" spans="2:14">
       <c r="B241" s="4"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="13"/>
-      <c r="G241" s="13"/>
-      <c r="H241" s="13"/>
-      <c r="I241" s="13"/>
-      <c r="J241" s="13"/>
-      <c r="K241" s="13"/>
-      <c r="L241" s="13"/>
-      <c r="M241" s="13"/>
       <c r="N241" s="5"/>
     </row>
     <row r="242" spans="2:14">
       <c r="B242" s="4"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="13"/>
-      <c r="E242" s="13"/>
-      <c r="F242" s="13"/>
-      <c r="G242" s="13"/>
-      <c r="H242" s="13"/>
-      <c r="I242" s="13"/>
-      <c r="J242" s="13"/>
-      <c r="K242" s="13"/>
-      <c r="L242" s="13"/>
-      <c r="M242" s="13"/>
       <c r="N242" s="5"/>
     </row>
     <row r="243" spans="2:14">
       <c r="B243" s="4"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13"/>
-      <c r="F243" s="13"/>
-      <c r="G243" s="13"/>
-      <c r="H243" s="13"/>
-      <c r="I243" s="13"/>
-      <c r="J243" s="13"/>
-      <c r="K243" s="13"/>
-      <c r="L243" s="13"/>
-      <c r="M243" s="13"/>
       <c r="N243" s="5"/>
     </row>
     <row r="244" spans="2:14">
@@ -7789,4 +6741,2821 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A73A60-9B3D-4579-B000-029EE31A5301}">
+  <dimension ref="B3:O219"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="T190" sqref="T190"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="5"/>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="5"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="5"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="4"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="5"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="5"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="B167" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="2:10">
+      <c r="B171" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="2:10">
+      <c r="B172" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="5"/>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="B174" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="2:15">
+      <c r="B177" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="2:15">
+      <c r="B178" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="2:15">
+      <c r="B179" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="2:15">
+      <c r="B180" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="2:15">
+      <c r="B181" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="2:15">
+      <c r="B182" s="7"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="9"/>
+    </row>
+    <row r="185" spans="2:15">
+      <c r="B185" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="3"/>
+    </row>
+    <row r="186" spans="2:15">
+      <c r="B186" s="4"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="13"/>
+      <c r="K186" s="13"/>
+      <c r="L186" s="13"/>
+      <c r="M186" s="13"/>
+      <c r="N186" s="13"/>
+      <c r="O186" s="5"/>
+    </row>
+    <row r="187" spans="2:15">
+      <c r="B187" s="4"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="13"/>
+      <c r="K187" s="13"/>
+      <c r="L187" s="13"/>
+      <c r="M187" s="13"/>
+      <c r="N187" s="13"/>
+      <c r="O187" s="5"/>
+    </row>
+    <row r="188" spans="2:15">
+      <c r="B188" s="4"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="13"/>
+      <c r="M188" s="13"/>
+      <c r="N188" s="13"/>
+      <c r="O188" s="5"/>
+    </row>
+    <row r="189" spans="2:15">
+      <c r="B189" s="4"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
+      <c r="K189" s="13"/>
+      <c r="L189" s="13"/>
+      <c r="M189" s="13"/>
+      <c r="N189" s="13"/>
+      <c r="O189" s="5"/>
+    </row>
+    <row r="190" spans="2:15">
+      <c r="B190" s="4"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="13"/>
+      <c r="K190" s="13"/>
+      <c r="L190" s="13"/>
+      <c r="M190" s="13"/>
+      <c r="N190" s="13"/>
+      <c r="O190" s="5"/>
+    </row>
+    <row r="191" spans="2:15">
+      <c r="B191" s="4"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="13"/>
+      <c r="K191" s="13"/>
+      <c r="L191" s="13"/>
+      <c r="M191" s="13"/>
+      <c r="N191" s="13"/>
+      <c r="O191" s="5"/>
+    </row>
+    <row r="192" spans="2:15">
+      <c r="B192" s="4"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="13"/>
+      <c r="L192" s="13"/>
+      <c r="M192" s="13"/>
+      <c r="N192" s="13"/>
+      <c r="O192" s="5"/>
+    </row>
+    <row r="193" spans="2:15">
+      <c r="B193" s="4"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
+      <c r="K193" s="13"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="13"/>
+      <c r="O193" s="5"/>
+    </row>
+    <row r="194" spans="2:15">
+      <c r="B194" s="4"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="13"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="13"/>
+      <c r="K194" s="13"/>
+      <c r="L194" s="13"/>
+      <c r="M194" s="13"/>
+      <c r="N194" s="13"/>
+      <c r="O194" s="5"/>
+    </row>
+    <row r="195" spans="2:15">
+      <c r="B195" s="4"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="13"/>
+      <c r="K195" s="13"/>
+      <c r="L195" s="13"/>
+      <c r="M195" s="13"/>
+      <c r="N195" s="13"/>
+      <c r="O195" s="5"/>
+    </row>
+    <row r="196" spans="2:15">
+      <c r="B196" s="4"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="13"/>
+      <c r="K196" s="13"/>
+      <c r="L196" s="13"/>
+      <c r="M196" s="13"/>
+      <c r="N196" s="13"/>
+      <c r="O196" s="5"/>
+    </row>
+    <row r="197" spans="2:15">
+      <c r="B197" s="4"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="13"/>
+      <c r="K197" s="13"/>
+      <c r="L197" s="13"/>
+      <c r="M197" s="13"/>
+      <c r="N197" s="13"/>
+      <c r="O197" s="5"/>
+    </row>
+    <row r="198" spans="2:15">
+      <c r="B198" s="4"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13"/>
+      <c r="K198" s="13"/>
+      <c r="L198" s="13"/>
+      <c r="M198" s="13"/>
+      <c r="N198" s="13"/>
+      <c r="O198" s="5"/>
+    </row>
+    <row r="199" spans="2:15">
+      <c r="B199" s="4"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="13"/>
+      <c r="K199" s="13"/>
+      <c r="L199" s="13"/>
+      <c r="M199" s="13"/>
+      <c r="N199" s="13"/>
+      <c r="O199" s="5"/>
+    </row>
+    <row r="200" spans="2:15">
+      <c r="B200" s="4"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
+      <c r="K200" s="13"/>
+      <c r="L200" s="13"/>
+      <c r="M200" s="13"/>
+      <c r="N200" s="13"/>
+      <c r="O200" s="5"/>
+    </row>
+    <row r="201" spans="2:15">
+      <c r="B201" s="4"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
+      <c r="K201" s="13"/>
+      <c r="L201" s="13"/>
+      <c r="M201" s="13"/>
+      <c r="N201" s="13"/>
+      <c r="O201" s="5"/>
+    </row>
+    <row r="202" spans="2:15">
+      <c r="B202" s="4"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="13"/>
+      <c r="K202" s="13"/>
+      <c r="L202" s="13"/>
+      <c r="M202" s="13"/>
+      <c r="N202" s="13"/>
+      <c r="O202" s="5"/>
+    </row>
+    <row r="203" spans="2:15">
+      <c r="B203" s="4"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="13"/>
+      <c r="K203" s="13"/>
+      <c r="L203" s="13"/>
+      <c r="M203" s="13"/>
+      <c r="N203" s="13"/>
+      <c r="O203" s="5"/>
+    </row>
+    <row r="204" spans="2:15">
+      <c r="B204" s="4"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="13"/>
+      <c r="K204" s="13"/>
+      <c r="L204" s="13"/>
+      <c r="M204" s="13"/>
+      <c r="N204" s="13"/>
+      <c r="O204" s="5"/>
+    </row>
+    <row r="205" spans="2:15">
+      <c r="B205" s="4"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13"/>
+      <c r="K205" s="13"/>
+      <c r="L205" s="13"/>
+      <c r="M205" s="13"/>
+      <c r="N205" s="13"/>
+      <c r="O205" s="5"/>
+    </row>
+    <row r="206" spans="2:15">
+      <c r="B206" s="4"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="13"/>
+      <c r="L206" s="13"/>
+      <c r="M206" s="13"/>
+      <c r="N206" s="13"/>
+      <c r="O206" s="5"/>
+    </row>
+    <row r="207" spans="2:15">
+      <c r="B207" s="4"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
+      <c r="K207" s="13"/>
+      <c r="L207" s="13"/>
+      <c r="M207" s="13"/>
+      <c r="N207" s="13"/>
+      <c r="O207" s="5"/>
+    </row>
+    <row r="208" spans="2:15">
+      <c r="B208" s="4"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
+      <c r="K208" s="13"/>
+      <c r="L208" s="13"/>
+      <c r="M208" s="13"/>
+      <c r="N208" s="13"/>
+      <c r="O208" s="5"/>
+    </row>
+    <row r="209" spans="2:15">
+      <c r="B209" s="4"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="13"/>
+      <c r="K209" s="13"/>
+      <c r="L209" s="13"/>
+      <c r="M209" s="13"/>
+      <c r="N209" s="13"/>
+      <c r="O209" s="5"/>
+    </row>
+    <row r="210" spans="2:15">
+      <c r="B210" s="4"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="13"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="13"/>
+      <c r="K210" s="13"/>
+      <c r="L210" s="13"/>
+      <c r="M210" s="13"/>
+      <c r="N210" s="13"/>
+      <c r="O210" s="5"/>
+    </row>
+    <row r="211" spans="2:15">
+      <c r="B211" s="4"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="13"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+      <c r="K211" s="13"/>
+      <c r="L211" s="13"/>
+      <c r="M211" s="13"/>
+      <c r="N211" s="13"/>
+      <c r="O211" s="5"/>
+    </row>
+    <row r="212" spans="2:15">
+      <c r="B212" s="4"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="13"/>
+      <c r="K212" s="13"/>
+      <c r="L212" s="13"/>
+      <c r="M212" s="13"/>
+      <c r="N212" s="13"/>
+      <c r="O212" s="5"/>
+    </row>
+    <row r="213" spans="2:15">
+      <c r="B213" s="4"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+      <c r="G213" s="13"/>
+      <c r="H213" s="13"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="13"/>
+      <c r="K213" s="13"/>
+      <c r="L213" s="13"/>
+      <c r="M213" s="13"/>
+      <c r="N213" s="13"/>
+      <c r="O213" s="5"/>
+    </row>
+    <row r="214" spans="2:15">
+      <c r="B214" s="4"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="13"/>
+      <c r="H214" s="13"/>
+      <c r="I214" s="13"/>
+      <c r="J214" s="13"/>
+      <c r="K214" s="13"/>
+      <c r="L214" s="13"/>
+      <c r="M214" s="13"/>
+      <c r="N214" s="13"/>
+      <c r="O214" s="5"/>
+    </row>
+    <row r="215" spans="2:15">
+      <c r="B215" s="4"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="13"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
+      <c r="K215" s="13"/>
+      <c r="L215" s="13"/>
+      <c r="M215" s="13"/>
+      <c r="N215" s="13"/>
+      <c r="O215" s="5"/>
+    </row>
+    <row r="216" spans="2:15">
+      <c r="B216" s="4"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="13"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="13"/>
+      <c r="K216" s="13"/>
+      <c r="L216" s="13"/>
+      <c r="M216" s="13"/>
+      <c r="N216" s="13"/>
+      <c r="O216" s="5"/>
+    </row>
+    <row r="217" spans="2:15">
+      <c r="B217" s="4"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
+      <c r="G217" s="13"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
+      <c r="K217" s="13"/>
+      <c r="L217" s="13"/>
+      <c r="M217" s="13"/>
+      <c r="N217" s="13"/>
+      <c r="O217" s="5"/>
+    </row>
+    <row r="218" spans="2:15">
+      <c r="B218" s="4"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
+      <c r="K218" s="13"/>
+      <c r="L218" s="13"/>
+      <c r="M218" s="13"/>
+      <c r="N218" s="13"/>
+      <c r="O218" s="5"/>
+    </row>
+    <row r="219" spans="2:15">
+      <c r="B219" s="7"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
+      <c r="H219" s="8"/>
+      <c r="I219" s="8"/>
+      <c r="J219" s="8"/>
+      <c r="K219" s="8"/>
+      <c r="L219" s="8"/>
+      <c r="M219" s="8"/>
+      <c r="N219" s="8"/>
+      <c r="O219" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
+++ b/1.nen-tang-lap-trinh-java/8.Su-dung-vong-lap-xu-ly-cac-thap-hinh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337176B2-3CDD-4A6E-BEF5-3DAFC24645E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF2E35-AAC7-4F28-ACA9-374CABE8756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="1140" windowWidth="25770" windowHeight="13920" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="1140" windowWidth="25770" windowHeight="13920" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shape 01" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Shape 05" sheetId="5" r:id="rId5"/>
     <sheet name="Shape 06" sheetId="6" r:id="rId6"/>
     <sheet name="Shape 07" sheetId="7" r:id="rId7"/>
+    <sheet name="Shape 08" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="203">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -615,6 +616,69 @@
   </si>
   <si>
     <t>    public static void main006(String[] args) {</t>
+  </si>
+  <si>
+    <t>    // 008 Shape 8</t>
+  </si>
+  <si>
+    <t>        /*                  </t>
+  </si>
+  <si>
+    <t>          HEIGHT        4</t>
+  </si>
+  <si>
+    <t>                     line   = space + character</t>
+  </si>
+  <si>
+    <t>            *           1       3       1           space       = HEIGHT - line</t>
+  </si>
+  <si>
+    <t>           ***          2       2       3           character   = 2*line - 1</t>
+  </si>
+  <si>
+    <t>          *****         3       1       5</t>
+  </si>
+  <si>
+    <t>         *******        4       0       7</t>
+  </si>
+  <si>
+    <t>        final int HEIGHT    = 9;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String result       = "";   </t>
+  </si>
+  <si>
+    <t>        String space        = "";</t>
+  </si>
+  <si>
+    <t>        String character    = "";</t>
+  </si>
+  <si>
+    <t>        int line = 1;</t>
+  </si>
+  <si>
+    <t>        while(line &lt;= HEIGHT){</t>
+  </si>
+  <si>
+    <t>            space       = "";</t>
+  </si>
+  <si>
+    <t>            character   = "";</t>
+  </si>
+  <si>
+    <t>            for(int s = 1; s &lt;= HEIGHT - line; s++) space += "  ";</t>
+  </si>
+  <si>
+    <t>            for(int c = 1; c &lt;= 2*line - 1; c++) character += "* ";</t>
+  </si>
+  <si>
+    <t>            result += space + character + "\n";</t>
+  </si>
+  <si>
+    <t>            line++;</t>
+  </si>
+  <si>
+    <t>    public static void main007(String[] args) {</t>
   </si>
 </sst>
 </file>
@@ -1405,6 +1469,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>436389</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>49838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DF26D6-ED4E-9777-29C8-956740CD8699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="49272825"/>
+          <a:ext cx="14085714" cy="7695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>37050</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>113238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9562B69B-1053-6002-EA83-003ED8245F17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="57683400"/>
+          <a:ext cx="8400000" cy="8495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6747,8 +6904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A73A60-9B3D-4579-B000-029EE31A5301}">
   <dimension ref="B3:O219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="T190" sqref="T190"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6867,2117 +7024,1060 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="2:10">
       <c r="B139" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="2:10">
       <c r="B140" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="2:10">
       <c r="B141" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="2:10">
       <c r="B142" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="2:10">
       <c r="B145" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="2:10">
       <c r="B146" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="2:10">
       <c r="B147" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="2:10">
       <c r="B148" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="2:10">
       <c r="B149" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="13"/>
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="2:10">
       <c r="B150" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="13"/>
-      <c r="I150" s="13"/>
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="2:10">
       <c r="B151" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="13"/>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="2:10">
       <c r="B152" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="2:10">
       <c r="B153" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="13"/>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="2:10">
       <c r="B154" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="13"/>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="2:10">
       <c r="B155" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="13"/>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="2:10">
       <c r="B156" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="2:10">
       <c r="B157" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="13"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="2:10">
       <c r="B158" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
-      <c r="H158" s="13"/>
-      <c r="I158" s="13"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="2:10">
       <c r="B159" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="13"/>
-      <c r="I159" s="13"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="2:10">
       <c r="B160" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="2:10">
       <c r="B161" s="4"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
-      <c r="H161" s="13"/>
-      <c r="I161" s="13"/>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="2:10">
       <c r="B162" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="2:10">
       <c r="B163" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="13"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="2:10">
       <c r="B164" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="2:10">
       <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="2:10">
       <c r="B166" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="2:10">
       <c r="B167" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
-      <c r="H167" s="13"/>
-      <c r="I167" s="13"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="2:10">
       <c r="B168" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="13"/>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="2:10">
       <c r="B169" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="2:10">
       <c r="B170" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="13"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="2:10">
       <c r="B171" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
       <c r="J171" s="5"/>
     </row>
     <row r="172" spans="2:10">
       <c r="B172" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
-      <c r="H172" s="13"/>
-      <c r="I172" s="13"/>
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="2:10">
       <c r="B173" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="13"/>
-      <c r="H173" s="13"/>
-      <c r="I173" s="13"/>
       <c r="J173" s="5"/>
     </row>
     <row r="174" spans="2:10">
       <c r="B174" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="13"/>
       <c r="J174" s="5"/>
     </row>
     <row r="175" spans="2:10">
       <c r="B175" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="13"/>
-      <c r="H175" s="13"/>
-      <c r="I175" s="13"/>
       <c r="J175" s="5"/>
     </row>
     <row r="176" spans="2:10">
       <c r="B176" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="13"/>
-      <c r="H176" s="13"/>
-      <c r="I176" s="13"/>
       <c r="J176" s="5"/>
     </row>
     <row r="177" spans="2:15">
       <c r="B177" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="13"/>
-      <c r="H177" s="13"/>
-      <c r="I177" s="13"/>
       <c r="J177" s="5"/>
     </row>
     <row r="178" spans="2:15">
       <c r="B178" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
-      <c r="H178" s="13"/>
-      <c r="I178" s="13"/>
       <c r="J178" s="5"/>
     </row>
     <row r="179" spans="2:15">
       <c r="B179" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
-      <c r="H179" s="13"/>
-      <c r="I179" s="13"/>
       <c r="J179" s="5"/>
     </row>
     <row r="180" spans="2:15">
       <c r="B180" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="13"/>
-      <c r="H180" s="13"/>
-      <c r="I180" s="13"/>
       <c r="J180" s="5"/>
     </row>
     <row r="181" spans="2:15">
       <c r="B181" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="13"/>
-      <c r="H181" s="13"/>
-      <c r="I181" s="13"/>
       <c r="J181" s="5"/>
     </row>
     <row r="182" spans="2:15">
@@ -9011,530 +8111,134 @@
     </row>
     <row r="186" spans="2:15">
       <c r="B186" s="4"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="13"/>
-      <c r="H186" s="13"/>
-      <c r="I186" s="13"/>
-      <c r="J186" s="13"/>
-      <c r="K186" s="13"/>
-      <c r="L186" s="13"/>
-      <c r="M186" s="13"/>
-      <c r="N186" s="13"/>
       <c r="O186" s="5"/>
     </row>
     <row r="187" spans="2:15">
       <c r="B187" s="4"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="13"/>
-      <c r="H187" s="13"/>
-      <c r="I187" s="13"/>
-      <c r="J187" s="13"/>
-      <c r="K187" s="13"/>
-      <c r="L187" s="13"/>
-      <c r="M187" s="13"/>
-      <c r="N187" s="13"/>
       <c r="O187" s="5"/>
     </row>
     <row r="188" spans="2:15">
       <c r="B188" s="4"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="13"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="13"/>
-      <c r="L188" s="13"/>
-      <c r="M188" s="13"/>
-      <c r="N188" s="13"/>
       <c r="O188" s="5"/>
     </row>
     <row r="189" spans="2:15">
       <c r="B189" s="4"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="13"/>
-      <c r="H189" s="13"/>
-      <c r="I189" s="13"/>
-      <c r="J189" s="13"/>
-      <c r="K189" s="13"/>
-      <c r="L189" s="13"/>
-      <c r="M189" s="13"/>
-      <c r="N189" s="13"/>
       <c r="O189" s="5"/>
     </row>
     <row r="190" spans="2:15">
       <c r="B190" s="4"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="13"/>
-      <c r="H190" s="13"/>
-      <c r="I190" s="13"/>
-      <c r="J190" s="13"/>
-      <c r="K190" s="13"/>
-      <c r="L190" s="13"/>
-      <c r="M190" s="13"/>
-      <c r="N190" s="13"/>
       <c r="O190" s="5"/>
     </row>
     <row r="191" spans="2:15">
       <c r="B191" s="4"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="13"/>
-      <c r="H191" s="13"/>
-      <c r="I191" s="13"/>
-      <c r="J191" s="13"/>
-      <c r="K191" s="13"/>
-      <c r="L191" s="13"/>
-      <c r="M191" s="13"/>
-      <c r="N191" s="13"/>
       <c r="O191" s="5"/>
     </row>
     <row r="192" spans="2:15">
       <c r="B192" s="4"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="13"/>
-      <c r="G192" s="13"/>
-      <c r="H192" s="13"/>
-      <c r="I192" s="13"/>
-      <c r="J192" s="13"/>
-      <c r="K192" s="13"/>
-      <c r="L192" s="13"/>
-      <c r="M192" s="13"/>
-      <c r="N192" s="13"/>
       <c r="O192" s="5"/>
     </row>
     <row r="193" spans="2:15">
       <c r="B193" s="4"/>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="13"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="13"/>
-      <c r="J193" s="13"/>
-      <c r="K193" s="13"/>
-      <c r="L193" s="13"/>
-      <c r="M193" s="13"/>
-      <c r="N193" s="13"/>
       <c r="O193" s="5"/>
     </row>
     <row r="194" spans="2:15">
       <c r="B194" s="4"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
-      <c r="F194" s="13"/>
-      <c r="G194" s="13"/>
-      <c r="H194" s="13"/>
-      <c r="I194" s="13"/>
-      <c r="J194" s="13"/>
-      <c r="K194" s="13"/>
-      <c r="L194" s="13"/>
-      <c r="M194" s="13"/>
-      <c r="N194" s="13"/>
       <c r="O194" s="5"/>
     </row>
     <row r="195" spans="2:15">
       <c r="B195" s="4"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="13"/>
-      <c r="H195" s="13"/>
-      <c r="I195" s="13"/>
-      <c r="J195" s="13"/>
-      <c r="K195" s="13"/>
-      <c r="L195" s="13"/>
-      <c r="M195" s="13"/>
-      <c r="N195" s="13"/>
       <c r="O195" s="5"/>
     </row>
     <row r="196" spans="2:15">
       <c r="B196" s="4"/>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
-      <c r="F196" s="13"/>
-      <c r="G196" s="13"/>
-      <c r="H196" s="13"/>
-      <c r="I196" s="13"/>
-      <c r="J196" s="13"/>
-      <c r="K196" s="13"/>
-      <c r="L196" s="13"/>
-      <c r="M196" s="13"/>
-      <c r="N196" s="13"/>
       <c r="O196" s="5"/>
     </row>
     <row r="197" spans="2:15">
       <c r="B197" s="4"/>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="13"/>
-      <c r="G197" s="13"/>
-      <c r="H197" s="13"/>
-      <c r="I197" s="13"/>
-      <c r="J197" s="13"/>
-      <c r="K197" s="13"/>
-      <c r="L197" s="13"/>
-      <c r="M197" s="13"/>
-      <c r="N197" s="13"/>
       <c r="O197" s="5"/>
     </row>
     <row r="198" spans="2:15">
       <c r="B198" s="4"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="13"/>
-      <c r="H198" s="13"/>
-      <c r="I198" s="13"/>
-      <c r="J198" s="13"/>
-      <c r="K198" s="13"/>
-      <c r="L198" s="13"/>
-      <c r="M198" s="13"/>
-      <c r="N198" s="13"/>
       <c r="O198" s="5"/>
     </row>
     <row r="199" spans="2:15">
       <c r="B199" s="4"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="13"/>
-      <c r="H199" s="13"/>
-      <c r="I199" s="13"/>
-      <c r="J199" s="13"/>
-      <c r="K199" s="13"/>
-      <c r="L199" s="13"/>
-      <c r="M199" s="13"/>
-      <c r="N199" s="13"/>
       <c r="O199" s="5"/>
     </row>
     <row r="200" spans="2:15">
       <c r="B200" s="4"/>
-      <c r="C200" s="13"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="13"/>
-      <c r="H200" s="13"/>
-      <c r="I200" s="13"/>
-      <c r="J200" s="13"/>
-      <c r="K200" s="13"/>
-      <c r="L200" s="13"/>
-      <c r="M200" s="13"/>
-      <c r="N200" s="13"/>
       <c r="O200" s="5"/>
     </row>
     <row r="201" spans="2:15">
       <c r="B201" s="4"/>
-      <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="13"/>
-      <c r="G201" s="13"/>
-      <c r="H201" s="13"/>
-      <c r="I201" s="13"/>
-      <c r="J201" s="13"/>
-      <c r="K201" s="13"/>
-      <c r="L201" s="13"/>
-      <c r="M201" s="13"/>
-      <c r="N201" s="13"/>
       <c r="O201" s="5"/>
     </row>
     <row r="202" spans="2:15">
       <c r="B202" s="4"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
-      <c r="F202" s="13"/>
-      <c r="G202" s="13"/>
-      <c r="H202" s="13"/>
-      <c r="I202" s="13"/>
-      <c r="J202" s="13"/>
-      <c r="K202" s="13"/>
-      <c r="L202" s="13"/>
-      <c r="M202" s="13"/>
-      <c r="N202" s="13"/>
       <c r="O202" s="5"/>
     </row>
     <row r="203" spans="2:15">
       <c r="B203" s="4"/>
-      <c r="C203" s="13"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-      <c r="F203" s="13"/>
-      <c r="G203" s="13"/>
-      <c r="H203" s="13"/>
-      <c r="I203" s="13"/>
-      <c r="J203" s="13"/>
-      <c r="K203" s="13"/>
-      <c r="L203" s="13"/>
-      <c r="M203" s="13"/>
-      <c r="N203" s="13"/>
       <c r="O203" s="5"/>
     </row>
     <row r="204" spans="2:15">
       <c r="B204" s="4"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
-      <c r="G204" s="13"/>
-      <c r="H204" s="13"/>
-      <c r="I204" s="13"/>
-      <c r="J204" s="13"/>
-      <c r="K204" s="13"/>
-      <c r="L204" s="13"/>
-      <c r="M204" s="13"/>
-      <c r="N204" s="13"/>
       <c r="O204" s="5"/>
     </row>
     <row r="205" spans="2:15">
       <c r="B205" s="4"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="13"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13"/>
-      <c r="L205" s="13"/>
-      <c r="M205" s="13"/>
-      <c r="N205" s="13"/>
       <c r="O205" s="5"/>
     </row>
     <row r="206" spans="2:15">
       <c r="B206" s="4"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
-      <c r="G206" s="13"/>
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="13"/>
-      <c r="L206" s="13"/>
-      <c r="M206" s="13"/>
-      <c r="N206" s="13"/>
       <c r="O206" s="5"/>
     </row>
     <row r="207" spans="2:15">
       <c r="B207" s="4"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="13"/>
-      <c r="H207" s="13"/>
-      <c r="I207" s="13"/>
-      <c r="J207" s="13"/>
-      <c r="K207" s="13"/>
-      <c r="L207" s="13"/>
-      <c r="M207" s="13"/>
-      <c r="N207" s="13"/>
       <c r="O207" s="5"/>
     </row>
     <row r="208" spans="2:15">
       <c r="B208" s="4"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="13"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="13"/>
-      <c r="K208" s="13"/>
-      <c r="L208" s="13"/>
-      <c r="M208" s="13"/>
-      <c r="N208" s="13"/>
       <c r="O208" s="5"/>
     </row>
     <row r="209" spans="2:15">
       <c r="B209" s="4"/>
-      <c r="C209" s="13"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
-      <c r="G209" s="13"/>
-      <c r="H209" s="13"/>
-      <c r="I209" s="13"/>
-      <c r="J209" s="13"/>
-      <c r="K209" s="13"/>
-      <c r="L209" s="13"/>
-      <c r="M209" s="13"/>
-      <c r="N209" s="13"/>
       <c r="O209" s="5"/>
     </row>
     <row r="210" spans="2:15">
       <c r="B210" s="4"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
-      <c r="J210" s="13"/>
-      <c r="K210" s="13"/>
-      <c r="L210" s="13"/>
-      <c r="M210" s="13"/>
-      <c r="N210" s="13"/>
       <c r="O210" s="5"/>
     </row>
     <row r="211" spans="2:15">
       <c r="B211" s="4"/>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="13"/>
-      <c r="H211" s="13"/>
-      <c r="I211" s="13"/>
-      <c r="J211" s="13"/>
-      <c r="K211" s="13"/>
-      <c r="L211" s="13"/>
-      <c r="M211" s="13"/>
-      <c r="N211" s="13"/>
       <c r="O211" s="5"/>
     </row>
     <row r="212" spans="2:15">
       <c r="B212" s="4"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="13"/>
-      <c r="G212" s="13"/>
-      <c r="H212" s="13"/>
-      <c r="I212" s="13"/>
-      <c r="J212" s="13"/>
-      <c r="K212" s="13"/>
-      <c r="L212" s="13"/>
-      <c r="M212" s="13"/>
-      <c r="N212" s="13"/>
       <c r="O212" s="5"/>
     </row>
     <row r="213" spans="2:15">
       <c r="B213" s="4"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="13"/>
-      <c r="G213" s="13"/>
-      <c r="H213" s="13"/>
-      <c r="I213" s="13"/>
-      <c r="J213" s="13"/>
-      <c r="K213" s="13"/>
-      <c r="L213" s="13"/>
-      <c r="M213" s="13"/>
-      <c r="N213" s="13"/>
       <c r="O213" s="5"/>
     </row>
     <row r="214" spans="2:15">
       <c r="B214" s="4"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
-      <c r="F214" s="13"/>
-      <c r="G214" s="13"/>
-      <c r="H214" s="13"/>
-      <c r="I214" s="13"/>
-      <c r="J214" s="13"/>
-      <c r="K214" s="13"/>
-      <c r="L214" s="13"/>
-      <c r="M214" s="13"/>
-      <c r="N214" s="13"/>
       <c r="O214" s="5"/>
     </row>
     <row r="215" spans="2:15">
       <c r="B215" s="4"/>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13"/>
-      <c r="G215" s="13"/>
-      <c r="H215" s="13"/>
-      <c r="I215" s="13"/>
-      <c r="J215" s="13"/>
-      <c r="K215" s="13"/>
-      <c r="L215" s="13"/>
-      <c r="M215" s="13"/>
-      <c r="N215" s="13"/>
       <c r="O215" s="5"/>
     </row>
     <row r="216" spans="2:15">
       <c r="B216" s="4"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="13"/>
-      <c r="H216" s="13"/>
-      <c r="I216" s="13"/>
-      <c r="J216" s="13"/>
-      <c r="K216" s="13"/>
-      <c r="L216" s="13"/>
-      <c r="M216" s="13"/>
-      <c r="N216" s="13"/>
       <c r="O216" s="5"/>
     </row>
     <row r="217" spans="2:15">
       <c r="B217" s="4"/>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="13"/>
-      <c r="G217" s="13"/>
-      <c r="H217" s="13"/>
-      <c r="I217" s="13"/>
-      <c r="J217" s="13"/>
-      <c r="K217" s="13"/>
-      <c r="L217" s="13"/>
-      <c r="M217" s="13"/>
-      <c r="N217" s="13"/>
       <c r="O217" s="5"/>
     </row>
     <row r="218" spans="2:15">
       <c r="B218" s="4"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
-      <c r="H218" s="13"/>
-      <c r="I218" s="13"/>
-      <c r="J218" s="13"/>
-      <c r="K218" s="13"/>
-      <c r="L218" s="13"/>
-      <c r="M218" s="13"/>
-      <c r="N218" s="13"/>
       <c r="O218" s="5"/>
     </row>
     <row r="219" spans="2:15">
@@ -9558,4 +8262,3286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9722427-C4EB-4B9A-B066-92B51219F27B}">
+  <dimension ref="B3:O290"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="S253" sqref="S253"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="11"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="5"/>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="5"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="5"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="5"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="5"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="B167" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="2:10">
+      <c r="B171" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="2:10">
+      <c r="B172" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="5"/>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="B174" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="B179" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="B181" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="2:10">
+      <c r="B182" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="2:10">
+      <c r="B183" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="2:10">
+      <c r="B184" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="5"/>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="B185" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="B186" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="B187" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="B188" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="2:10">
+      <c r="B189" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="2:10">
+      <c r="B190" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="B191" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="5"/>
+    </row>
+    <row r="192" spans="2:10">
+      <c r="B192" s="4"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="5"/>
+    </row>
+    <row r="193" spans="2:10">
+      <c r="B193" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="5"/>
+    </row>
+    <row r="194" spans="2:10">
+      <c r="B194" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="13"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="2:10">
+      <c r="B195" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="2:10">
+      <c r="B196" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="5"/>
+    </row>
+    <row r="197" spans="2:10">
+      <c r="B197" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="5"/>
+    </row>
+    <row r="198" spans="2:10">
+      <c r="B198" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="5"/>
+    </row>
+    <row r="199" spans="2:10">
+      <c r="B199" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="5"/>
+    </row>
+    <row r="200" spans="2:10">
+      <c r="B200" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="5"/>
+    </row>
+    <row r="201" spans="2:10">
+      <c r="B201" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="2:10">
+      <c r="B202" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="5"/>
+    </row>
+    <row r="203" spans="2:10">
+      <c r="B203" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="5"/>
+    </row>
+    <row r="204" spans="2:10">
+      <c r="B204" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="2:10">
+      <c r="B205" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="2:10">
+      <c r="B206" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="2:10">
+      <c r="B207" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="2:10">
+      <c r="B208" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="5"/>
+    </row>
+    <row r="209" spans="2:10">
+      <c r="B209" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="2:10">
+      <c r="B210" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="13"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="2:10">
+      <c r="B211" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="13"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="5"/>
+    </row>
+    <row r="212" spans="2:10">
+      <c r="B212" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="2:10">
+      <c r="B213" s="7"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
+      <c r="J213" s="9"/>
+    </row>
+    <row r="252" spans="2:15">
+      <c r="B252" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+      <c r="M252" s="2"/>
+      <c r="N252" s="2"/>
+      <c r="O252" s="3"/>
+    </row>
+    <row r="253" spans="2:15">
+      <c r="B253" s="4"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+      <c r="G253" s="13"/>
+      <c r="H253" s="13"/>
+      <c r="I253" s="13"/>
+      <c r="J253" s="13"/>
+      <c r="K253" s="13"/>
+      <c r="L253" s="13"/>
+      <c r="M253" s="13"/>
+      <c r="N253" s="13"/>
+      <c r="O253" s="5"/>
+    </row>
+    <row r="254" spans="2:15">
+      <c r="B254" s="4"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="13"/>
+      <c r="H254" s="13"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="13"/>
+      <c r="K254" s="13"/>
+      <c r="L254" s="13"/>
+      <c r="M254" s="13"/>
+      <c r="N254" s="13"/>
+      <c r="O254" s="5"/>
+    </row>
+    <row r="255" spans="2:15">
+      <c r="B255" s="4"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
+      <c r="H255" s="13"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="13"/>
+      <c r="K255" s="13"/>
+      <c r="L255" s="13"/>
+      <c r="M255" s="13"/>
+      <c r="N255" s="13"/>
+      <c r="O255" s="5"/>
+    </row>
+    <row r="256" spans="2:15">
+      <c r="B256" s="4"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
+      <c r="G256" s="13"/>
+      <c r="H256" s="13"/>
+      <c r="I256" s="13"/>
+      <c r="J256" s="13"/>
+      <c r="K256" s="13"/>
+      <c r="L256" s="13"/>
+      <c r="M256" s="13"/>
+      <c r="N256" s="13"/>
+      <c r="O256" s="5"/>
+    </row>
+    <row r="257" spans="2:15">
+      <c r="B257" s="4"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="13"/>
+      <c r="G257" s="13"/>
+      <c r="H257" s="13"/>
+      <c r="I257" s="13"/>
+      <c r="J257" s="13"/>
+      <c r="K257" s="13"/>
+      <c r="L257" s="13"/>
+      <c r="M257" s="13"/>
+      <c r="N257" s="13"/>
+      <c r="O257" s="5"/>
+    </row>
+    <row r="258" spans="2:15">
+      <c r="B258" s="4"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
+      <c r="G258" s="13"/>
+      <c r="H258" s="13"/>
+      <c r="I258" s="13"/>
+      <c r="J258" s="13"/>
+      <c r="K258" s="13"/>
+      <c r="L258" s="13"/>
+      <c r="M258" s="13"/>
+      <c r="N258" s="13"/>
+      <c r="O258" s="5"/>
+    </row>
+    <row r="259" spans="2:15">
+      <c r="B259" s="4"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13"/>
+      <c r="G259" s="13"/>
+      <c r="H259" s="13"/>
+      <c r="I259" s="13"/>
+      <c r="J259" s="13"/>
+      <c r="K259" s="13"/>
+      <c r="L259" s="13"/>
+      <c r="M259" s="13"/>
+      <c r="N259" s="13"/>
+      <c r="O259" s="5"/>
+    </row>
+    <row r="260" spans="2:15">
+      <c r="B260" s="4"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
+      <c r="G260" s="13"/>
+      <c r="H260" s="13"/>
+      <c r="I260" s="13"/>
+      <c r="J260" s="13"/>
+      <c r="K260" s="13"/>
+      <c r="L260" s="13"/>
+      <c r="M260" s="13"/>
+      <c r="N260" s="13"/>
+      <c r="O260" s="5"/>
+    </row>
+    <row r="261" spans="2:15">
+      <c r="B261" s="4"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
+      <c r="G261" s="13"/>
+      <c r="H261" s="13"/>
+      <c r="I261" s="13"/>
+      <c r="J261" s="13"/>
+      <c r="K261" s="13"/>
+      <c r="L261" s="13"/>
+      <c r="M261" s="13"/>
+      <c r="N261" s="13"/>
+      <c r="O261" s="5"/>
+    </row>
+    <row r="262" spans="2:15">
+      <c r="B262" s="4"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+      <c r="G262" s="13"/>
+      <c r="H262" s="13"/>
+      <c r="I262" s="13"/>
+      <c r="J262" s="13"/>
+      <c r="K262" s="13"/>
+      <c r="L262" s="13"/>
+      <c r="M262" s="13"/>
+      <c r="N262" s="13"/>
+      <c r="O262" s="5"/>
+    </row>
+    <row r="263" spans="2:15">
+      <c r="B263" s="4"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="13"/>
+      <c r="G263" s="13"/>
+      <c r="H263" s="13"/>
+      <c r="I263" s="13"/>
+      <c r="J263" s="13"/>
+      <c r="K263" s="13"/>
+      <c r="L263" s="13"/>
+      <c r="M263" s="13"/>
+      <c r="N263" s="13"/>
+      <c r="O263" s="5"/>
+    </row>
+    <row r="264" spans="2:15">
+      <c r="B264" s="4"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+      <c r="G264" s="13"/>
+      <c r="H264" s="13"/>
+      <c r="I264" s="13"/>
+      <c r="J264" s="13"/>
+      <c r="K264" s="13"/>
+      <c r="L264" s="13"/>
+      <c r="M264" s="13"/>
+      <c r="N264" s="13"/>
+      <c r="O264" s="5"/>
+    </row>
+    <row r="265" spans="2:15">
+      <c r="B265" s="4"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="13"/>
+      <c r="F265" s="13"/>
+      <c r="G265" s="13"/>
+      <c r="H265" s="13"/>
+      <c r="I265" s="13"/>
+      <c r="J265" s="13"/>
+      <c r="K265" s="13"/>
+      <c r="L265" s="13"/>
+      <c r="M265" s="13"/>
+      <c r="N265" s="13"/>
+      <c r="O265" s="5"/>
+    </row>
+    <row r="266" spans="2:15">
+      <c r="B266" s="4"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
+      <c r="G266" s="13"/>
+      <c r="H266" s="13"/>
+      <c r="I266" s="13"/>
+      <c r="J266" s="13"/>
+      <c r="K266" s="13"/>
+      <c r="L266" s="13"/>
+      <c r="M266" s="13"/>
+      <c r="N266" s="13"/>
+      <c r="O266" s="5"/>
+    </row>
+    <row r="267" spans="2:15">
+      <c r="B267" s="4"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+      <c r="G267" s="13"/>
+      <c r="H267" s="13"/>
+      <c r="I267" s="13"/>
+      <c r="J267" s="13"/>
+      <c r="K267" s="13"/>
+      <c r="L267" s="13"/>
+      <c r="M267" s="13"/>
+      <c r="N267" s="13"/>
+      <c r="O267" s="5"/>
+    </row>
+    <row r="268" spans="2:15">
+      <c r="B268" s="4"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="13"/>
+      <c r="H268" s="13"/>
+      <c r="I268" s="13"/>
+      <c r="J268" s="13"/>
+      <c r="K268" s="13"/>
+      <c r="L268" s="13"/>
+      <c r="M268" s="13"/>
+      <c r="N268" s="13"/>
+      <c r="O268" s="5"/>
+    </row>
+    <row r="269" spans="2:15">
+      <c r="B269" s="4"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="13"/>
+      <c r="G269" s="13"/>
+      <c r="H269" s="13"/>
+      <c r="I269" s="13"/>
+      <c r="J269" s="13"/>
+      <c r="K269" s="13"/>
+      <c r="L269" s="13"/>
+      <c r="M269" s="13"/>
+      <c r="N269" s="13"/>
+      <c r="O269" s="5"/>
+    </row>
+    <row r="270" spans="2:15">
+      <c r="B270" s="4"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="13"/>
+      <c r="G270" s="13"/>
+      <c r="H270" s="13"/>
+      <c r="I270" s="13"/>
+      <c r="J270" s="13"/>
+      <c r="K270" s="13"/>
+      <c r="L270" s="13"/>
+      <c r="M270" s="13"/>
+      <c r="N270" s="13"/>
+      <c r="O270" s="5"/>
+    </row>
+    <row r="271" spans="2:15">
+      <c r="B271" s="4"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="13"/>
+      <c r="G271" s="13"/>
+      <c r="H271" s="13"/>
+      <c r="I271" s="13"/>
+      <c r="J271" s="13"/>
+      <c r="K271" s="13"/>
+      <c r="L271" s="13"/>
+      <c r="M271" s="13"/>
+      <c r="N271" s="13"/>
+      <c r="O271" s="5"/>
+    </row>
+    <row r="272" spans="2:15">
+      <c r="B272" s="4"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="13"/>
+      <c r="G272" s="13"/>
+      <c r="H272" s="13"/>
+      <c r="I272" s="13"/>
+      <c r="J272" s="13"/>
+      <c r="K272" s="13"/>
+      <c r="L272" s="13"/>
+      <c r="M272" s="13"/>
+      <c r="N272" s="13"/>
+      <c r="O272" s="5"/>
+    </row>
+    <row r="273" spans="2:15">
+      <c r="B273" s="4"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="13"/>
+      <c r="G273" s="13"/>
+      <c r="H273" s="13"/>
+      <c r="I273" s="13"/>
+      <c r="J273" s="13"/>
+      <c r="K273" s="13"/>
+      <c r="L273" s="13"/>
+      <c r="M273" s="13"/>
+      <c r="N273" s="13"/>
+      <c r="O273" s="5"/>
+    </row>
+    <row r="274" spans="2:15">
+      <c r="B274" s="4"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+      <c r="G274" s="13"/>
+      <c r="H274" s="13"/>
+      <c r="I274" s="13"/>
+      <c r="J274" s="13"/>
+      <c r="K274" s="13"/>
+      <c r="L274" s="13"/>
+      <c r="M274" s="13"/>
+      <c r="N274" s="13"/>
+      <c r="O274" s="5"/>
+    </row>
+    <row r="275" spans="2:15">
+      <c r="B275" s="4"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="13"/>
+      <c r="G275" s="13"/>
+      <c r="H275" s="13"/>
+      <c r="I275" s="13"/>
+      <c r="J275" s="13"/>
+      <c r="K275" s="13"/>
+      <c r="L275" s="13"/>
+      <c r="M275" s="13"/>
+      <c r="N275" s="13"/>
+      <c r="O275" s="5"/>
+    </row>
+    <row r="276" spans="2:15">
+      <c r="B276" s="4"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
+      <c r="E276" s="13"/>
+      <c r="F276" s="13"/>
+      <c r="G276" s="13"/>
+      <c r="H276" s="13"/>
+      <c r="I276" s="13"/>
+      <c r="J276" s="13"/>
+      <c r="K276" s="13"/>
+      <c r="L276" s="13"/>
+      <c r="M276" s="13"/>
+      <c r="N276" s="13"/>
+      <c r="O276" s="5"/>
+    </row>
+    <row r="277" spans="2:15">
+      <c r="B277" s="4"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="13"/>
+      <c r="E277" s="13"/>
+      <c r="F277" s="13"/>
+      <c r="G277" s="13"/>
+      <c r="H277" s="13"/>
+      <c r="I277" s="13"/>
+      <c r="J277" s="13"/>
+      <c r="K277" s="13"/>
+      <c r="L277" s="13"/>
+      <c r="M277" s="13"/>
+      <c r="N277" s="13"/>
+      <c r="O277" s="5"/>
+    </row>
+    <row r="278" spans="2:15">
+      <c r="B278" s="4"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="13"/>
+      <c r="G278" s="13"/>
+      <c r="H278" s="13"/>
+      <c r="I278" s="13"/>
+      <c r="J278" s="13"/>
+      <c r="K278" s="13"/>
+      <c r="L278" s="13"/>
+      <c r="M278" s="13"/>
+      <c r="N278" s="13"/>
+      <c r="O278" s="5"/>
+    </row>
+    <row r="279" spans="2:15">
+      <c r="B279" s="4"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="13"/>
+      <c r="E279" s="13"/>
+      <c r="F279" s="13"/>
+      <c r="G279" s="13"/>
+      <c r="H279" s="13"/>
+      <c r="I279" s="13"/>
+      <c r="J279" s="13"/>
+      <c r="K279" s="13"/>
+      <c r="L279" s="13"/>
+      <c r="M279" s="13"/>
+      <c r="N279" s="13"/>
+      <c r="O279" s="5"/>
+    </row>
+    <row r="280" spans="2:15">
+      <c r="B280" s="4"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="13"/>
+      <c r="E280" s="13"/>
+      <c r="F280" s="13"/>
+      <c r="G280" s="13"/>
+      <c r="H280" s="13"/>
+      <c r="I280" s="13"/>
+      <c r="J280" s="13"/>
+      <c r="K280" s="13"/>
+      <c r="L280" s="13"/>
+      <c r="M280" s="13"/>
+      <c r="N280" s="13"/>
+      <c r="O280" s="5"/>
+    </row>
+    <row r="281" spans="2:15">
+      <c r="B281" s="4"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="13"/>
+      <c r="E281" s="13"/>
+      <c r="F281" s="13"/>
+      <c r="G281" s="13"/>
+      <c r="H281" s="13"/>
+      <c r="I281" s="13"/>
+      <c r="J281" s="13"/>
+      <c r="K281" s="13"/>
+      <c r="L281" s="13"/>
+      <c r="M281" s="13"/>
+      <c r="N281" s="13"/>
+      <c r="O281" s="5"/>
+    </row>
+    <row r="282" spans="2:15">
+      <c r="B282" s="4"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="13"/>
+      <c r="E282" s="13"/>
+      <c r="F282" s="13"/>
+      <c r="G282" s="13"/>
+      <c r="H282" s="13"/>
+      <c r="I282" s="13"/>
+      <c r="J282" s="13"/>
+      <c r="K282" s="13"/>
+      <c r="L282" s="13"/>
+      <c r="M282" s="13"/>
+      <c r="N282" s="13"/>
+      <c r="O282" s="5"/>
+    </row>
+    <row r="283" spans="2:15">
+      <c r="B283" s="4"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="13"/>
+      <c r="E283" s="13"/>
+      <c r="F283" s="13"/>
+      <c r="G283" s="13"/>
+      <c r="H283" s="13"/>
+      <c r="I283" s="13"/>
+      <c r="J283" s="13"/>
+      <c r="K283" s="13"/>
+      <c r="L283" s="13"/>
+      <c r="M283" s="13"/>
+      <c r="N283" s="13"/>
+      <c r="O283" s="5"/>
+    </row>
+    <row r="284" spans="2:15">
+      <c r="B284" s="4"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="13"/>
+      <c r="E284" s="13"/>
+      <c r="F284" s="13"/>
+      <c r="G284" s="13"/>
+      <c r="H284" s="13"/>
+      <c r="I284" s="13"/>
+      <c r="J284" s="13"/>
+      <c r="K284" s="13"/>
+      <c r="L284" s="13"/>
+      <c r="M284" s="13"/>
+      <c r="N284" s="13"/>
+      <c r="O284" s="5"/>
+    </row>
+    <row r="285" spans="2:15">
+      <c r="B285" s="4"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="13"/>
+      <c r="E285" s="13"/>
+      <c r="F285" s="13"/>
+      <c r="G285" s="13"/>
+      <c r="H285" s="13"/>
+      <c r="I285" s="13"/>
+      <c r="J285" s="13"/>
+      <c r="K285" s="13"/>
+      <c r="L285" s="13"/>
+      <c r="M285" s="13"/>
+      <c r="N285" s="13"/>
+      <c r="O285" s="5"/>
+    </row>
+    <row r="286" spans="2:15">
+      <c r="B286" s="4"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="13"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13"/>
+      <c r="G286" s="13"/>
+      <c r="H286" s="13"/>
+      <c r="I286" s="13"/>
+      <c r="J286" s="13"/>
+      <c r="K286" s="13"/>
+      <c r="L286" s="13"/>
+      <c r="M286" s="13"/>
+      <c r="N286" s="13"/>
+      <c r="O286" s="5"/>
+    </row>
+    <row r="287" spans="2:15">
+      <c r="B287" s="4"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="13"/>
+      <c r="F287" s="13"/>
+      <c r="G287" s="13"/>
+      <c r="H287" s="13"/>
+      <c r="I287" s="13"/>
+      <c r="J287" s="13"/>
+      <c r="K287" s="13"/>
+      <c r="L287" s="13"/>
+      <c r="M287" s="13"/>
+      <c r="N287" s="13"/>
+      <c r="O287" s="5"/>
+    </row>
+    <row r="288" spans="2:15">
+      <c r="B288" s="4"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+      <c r="G288" s="13"/>
+      <c r="H288" s="13"/>
+      <c r="I288" s="13"/>
+      <c r="J288" s="13"/>
+      <c r="K288" s="13"/>
+      <c r="L288" s="13"/>
+      <c r="M288" s="13"/>
+      <c r="N288" s="13"/>
+      <c r="O288" s="5"/>
+    </row>
+    <row r="289" spans="2:15">
+      <c r="B289" s="4"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="13"/>
+      <c r="F289" s="13"/>
+      <c r="G289" s="13"/>
+      <c r="H289" s="13"/>
+      <c r="I289" s="13"/>
+      <c r="J289" s="13"/>
+      <c r="K289" s="13"/>
+      <c r="L289" s="13"/>
+      <c r="M289" s="13"/>
+      <c r="N289" s="13"/>
+      <c r="O289" s="5"/>
+    </row>
+    <row r="290" spans="2:15">
+      <c r="B290" s="7"/>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
+      <c r="G290" s="8"/>
+      <c r="H290" s="8"/>
+      <c r="I290" s="8"/>
+      <c r="J290" s="8"/>
+      <c r="K290" s="8"/>
+      <c r="L290" s="8"/>
+      <c r="M290" s="8"/>
+      <c r="N290" s="8"/>
+      <c r="O290" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>